--- a/goodreads_library_read.xlsx
+++ b/goodreads_library_read.xlsx
@@ -10,10 +10,9 @@
     <sheet name="goodreads_library_read" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">goodreads_library_read!$A$1:$J$382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">goodreads_library_read!$A$1:$J$381</definedName>
   </definedNames>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="751">
   <si>
     <t>Title</t>
   </si>
@@ -2391,7 +2390,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2409,7 +2408,6 @@
     <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -2822,11 +2820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ405"/>
+  <dimension ref="A1:AMJ404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I133" sqref="I133"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P312" sqref="P312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -8051,28 +8049,28 @@
       </c>
     </row>
     <row r="132" spans="1:1022">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C132" s="16" t="s">
+      <c r="C132" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D132" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E132" s="16">
+      <c r="D132" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="15">
         <v>5</v>
       </c>
-      <c r="F132" s="17">
+      <c r="F132" s="16">
         <v>3.9</v>
       </c>
-      <c r="G132" s="16">
+      <c r="G132" s="15">
         <v>122</v>
       </c>
-      <c r="H132" s="16">
+      <c r="H132" s="15">
         <v>1945</v>
       </c>
       <c r="I132" s="10">
@@ -14948,32 +14946,32 @@
       </c>
     </row>
     <row r="316" spans="1:10">
-      <c r="A316" s="15" t="s">
-        <v>742</v>
+      <c r="A316" s="6" t="s">
+        <v>595</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E316" s="6">
         <v>5</v>
       </c>
       <c r="F316" s="7">
-        <v>3.97</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="G316" s="6">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="H316" s="6">
-        <v>1832</v>
+        <v>2015</v>
       </c>
       <c r="I316" s="8">
-        <v>42677</v>
+        <v>42708</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>14</v>
@@ -14981,31 +14979,31 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="6" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E317" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F317" s="7">
-        <v>4.3099999999999996</v>
+        <v>3.87</v>
       </c>
       <c r="G317" s="6">
-        <v>473</v>
+        <v>259</v>
       </c>
       <c r="H317" s="6">
-        <v>2015</v>
-      </c>
-      <c r="I317" s="8">
-        <v>42708</v>
+        <v>2016</v>
+      </c>
+      <c r="I317" s="10">
+        <v>42720</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>14</v>
@@ -15013,10 +15011,10 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" s="6" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>17</v>
@@ -15025,19 +15023,19 @@
         <v>21</v>
       </c>
       <c r="E318" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F318" s="7">
-        <v>3.87</v>
+        <v>3.84</v>
       </c>
       <c r="G318" s="6">
-        <v>259</v>
+        <v>456</v>
       </c>
       <c r="H318" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="I318" s="10">
-        <v>42720</v>
+        <v>42728</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>14</v>
@@ -15045,31 +15043,31 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E319" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F319" s="7">
-        <v>3.84</v>
+        <v>3.44</v>
       </c>
       <c r="G319" s="6">
-        <v>456</v>
+        <v>256</v>
       </c>
       <c r="H319" s="6">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="I319" s="10">
-        <v>42728</v>
+        <v>42731</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>14</v>
@@ -15077,31 +15075,31 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" s="6" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E320" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F320" s="7">
-        <v>3.44</v>
+        <v>4.13</v>
       </c>
       <c r="G320" s="6">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H320" s="6">
-        <v>2007</v>
-      </c>
-      <c r="I320" s="10">
-        <v>42731</v>
+        <v>2012</v>
+      </c>
+      <c r="I320" s="8">
+        <v>42738</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>14</v>
@@ -15109,10 +15107,10 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" s="6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>17</v>
@@ -15121,19 +15119,19 @@
         <v>21</v>
       </c>
       <c r="E321" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F321" s="7">
-        <v>4.13</v>
+        <v>4.07</v>
       </c>
       <c r="G321" s="6">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="H321" s="6">
-        <v>2012</v>
+        <v>1969</v>
       </c>
       <c r="I321" s="8">
-        <v>42738</v>
+        <v>42749</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>14</v>
@@ -15141,10 +15139,10 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" s="6" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>606</v>
+        <v>553</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>17</v>
@@ -15153,19 +15151,19 @@
         <v>21</v>
       </c>
       <c r="E322" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F322" s="7">
-        <v>4.07</v>
+        <v>4.2</v>
       </c>
       <c r="G322" s="6">
-        <v>275</v>
+        <v>802</v>
       </c>
       <c r="H322" s="6">
-        <v>1969</v>
+        <v>2010</v>
       </c>
       <c r="I322" s="8">
-        <v>42749</v>
+        <v>42750</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>14</v>
@@ -15173,28 +15171,28 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>553</v>
+        <v>264</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E323" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F323" s="7">
-        <v>4.2</v>
+        <v>4.17</v>
       </c>
       <c r="G323" s="6">
-        <v>802</v>
+        <v>233</v>
       </c>
       <c r="H323" s="6">
-        <v>2010</v>
+        <v>1864</v>
       </c>
       <c r="I323" s="8">
         <v>42750</v>
@@ -15205,31 +15203,31 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>264</v>
+        <v>610</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E324" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F324" s="7">
-        <v>4.17</v>
+        <v>3.59</v>
       </c>
       <c r="G324" s="6">
-        <v>233</v>
+        <v>368</v>
       </c>
       <c r="H324" s="6">
-        <v>1864</v>
+        <v>1994</v>
       </c>
       <c r="I324" s="8">
-        <v>42750</v>
+        <v>42751</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>14</v>
@@ -15237,31 +15235,31 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" s="6" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E325" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F325" s="7">
-        <v>3.59</v>
+        <v>3.85</v>
       </c>
       <c r="G325" s="6">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="H325" s="6">
-        <v>1994</v>
+        <v>2006</v>
       </c>
       <c r="I325" s="8">
-        <v>42751</v>
+        <v>42758</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>14</v>
@@ -15269,28 +15267,28 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" s="6" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>612</v>
+        <v>258</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E326" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F326" s="7">
-        <v>3.85</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G326" s="6">
-        <v>328</v>
+        <v>688</v>
       </c>
       <c r="H326" s="6">
-        <v>2006</v>
+        <v>1843</v>
       </c>
       <c r="I326" s="8">
         <v>42758</v>
@@ -15301,13 +15299,13 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>258</v>
+        <v>615</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>21</v>
@@ -15316,16 +15314,16 @@
         <v>5</v>
       </c>
       <c r="F327" s="7">
-        <v>4.3499999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="G327" s="6">
-        <v>688</v>
+        <v>320</v>
       </c>
       <c r="H327" s="6">
-        <v>1843</v>
+        <v>1984</v>
       </c>
       <c r="I327" s="8">
-        <v>42758</v>
+        <v>42772</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>14</v>
@@ -15333,7 +15331,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" s="6" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>615</v>
@@ -15348,16 +15346,16 @@
         <v>5</v>
       </c>
       <c r="F328" s="7">
-        <v>4.09</v>
+        <v>4</v>
       </c>
       <c r="G328" s="6">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H328" s="6">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="I328" s="8">
-        <v>42772</v>
+        <v>42777</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>14</v>
@@ -15365,28 +15363,28 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>615</v>
+        <v>268</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E329" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F329" s="7">
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="G329" s="6">
-        <v>313</v>
+        <v>471</v>
       </c>
       <c r="H329" s="6">
-        <v>1979</v>
+        <v>1996</v>
       </c>
       <c r="I329" s="8">
         <v>42777</v>
@@ -15397,10 +15395,10 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>268</v>
+        <v>619</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>17</v>
@@ -15412,16 +15410,16 @@
         <v>4</v>
       </c>
       <c r="F330" s="7">
-        <v>4.0199999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G330" s="6">
-        <v>471</v>
+        <v>256</v>
       </c>
       <c r="H330" s="6">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="I330" s="8">
-        <v>42777</v>
+        <v>42792</v>
       </c>
       <c r="J330" s="1" t="s">
         <v>14</v>
@@ -15429,10 +15427,10 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" s="6" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>619</v>
+        <v>268</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>17</v>
@@ -15444,13 +15442,13 @@
         <v>4</v>
       </c>
       <c r="F331" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="G331" s="6">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H331" s="6">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="I331" s="8">
         <v>42792</v>
@@ -15461,10 +15459,10 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>268</v>
+        <v>622</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>17</v>
@@ -15473,19 +15471,19 @@
         <v>21</v>
       </c>
       <c r="E332" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F332" s="7">
-        <v>4.09</v>
+        <v>3.87</v>
       </c>
       <c r="G332" s="6">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="H332" s="6">
-        <v>1980</v>
+        <v>1954</v>
       </c>
       <c r="I332" s="8">
-        <v>42792</v>
+        <v>42797</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>14</v>
@@ -15493,13 +15491,13 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" s="6" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>17</v>
+        <v>436</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>21</v>
@@ -15508,13 +15506,13 @@
         <v>5</v>
       </c>
       <c r="F333" s="7">
-        <v>3.87</v>
+        <v>4.3</v>
       </c>
       <c r="G333" s="6">
-        <v>142</v>
+        <v>450</v>
       </c>
       <c r="H333" s="6">
-        <v>1954</v>
+        <v>2015</v>
       </c>
       <c r="I333" s="8">
         <v>42797</v>
@@ -15525,13 +15523,13 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" s="6" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>624</v>
+        <v>296</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>436</v>
+        <v>297</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>21</v>
@@ -15540,16 +15538,16 @@
         <v>5</v>
       </c>
       <c r="F334" s="7">
-        <v>4.3</v>
+        <v>3.92</v>
       </c>
       <c r="G334" s="6">
-        <v>450</v>
+        <v>376</v>
       </c>
       <c r="H334" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I334" s="8">
-        <v>42797</v>
+        <v>42803</v>
       </c>
       <c r="J334" s="1" t="s">
         <v>14</v>
@@ -15557,13 +15555,13 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>296</v>
+        <v>627</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>21</v>
@@ -15572,16 +15570,16 @@
         <v>5</v>
       </c>
       <c r="F335" s="7">
-        <v>3.92</v>
+        <v>4.37</v>
       </c>
       <c r="G335" s="6">
-        <v>376</v>
+        <v>592</v>
       </c>
       <c r="H335" s="6">
         <v>2016</v>
       </c>
       <c r="I335" s="8">
-        <v>42803</v>
+        <v>42829</v>
       </c>
       <c r="J335" s="1" t="s">
         <v>14</v>
@@ -15589,28 +15587,28 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" s="6" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E336" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F336" s="7">
-        <v>4.37</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="G336" s="6">
-        <v>592</v>
+        <v>457</v>
       </c>
       <c r="H336" s="6">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="I336" s="8">
         <v>42829</v>
@@ -15621,13 +15619,13 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" s="6" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>17</v>
+        <v>632</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>21</v>
@@ -15636,16 +15634,16 @@
         <v>4</v>
       </c>
       <c r="F337" s="7">
-        <v>4.2699999999999996</v>
+        <v>3.99</v>
       </c>
       <c r="G337" s="6">
-        <v>457</v>
-      </c>
-      <c r="H337" s="6">
-        <v>1995</v>
+        <v>368</v>
+      </c>
+      <c r="H337" s="1">
+        <v>2017</v>
       </c>
       <c r="I337" s="8">
-        <v>42829</v>
+        <v>42847</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>14</v>
@@ -15653,13 +15651,13 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338" s="6" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>632</v>
+        <v>17</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>21</v>
@@ -15668,16 +15666,16 @@
         <v>4</v>
       </c>
       <c r="F338" s="7">
-        <v>3.99</v>
+        <v>4.08</v>
       </c>
       <c r="G338" s="6">
-        <v>368</v>
-      </c>
-      <c r="H338" s="1">
-        <v>2017</v>
+        <v>395</v>
+      </c>
+      <c r="H338" s="6">
+        <v>1978</v>
       </c>
       <c r="I338" s="8">
-        <v>42847</v>
+        <v>42848</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>14</v>
@@ -15685,10 +15683,10 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" s="6" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>17</v>
@@ -15697,19 +15695,19 @@
         <v>21</v>
       </c>
       <c r="E339" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F339" s="7">
-        <v>4.08</v>
+        <v>3.9</v>
       </c>
       <c r="G339" s="6">
-        <v>395</v>
+        <v>178</v>
       </c>
       <c r="H339" s="6">
-        <v>1978</v>
+        <v>2014</v>
       </c>
       <c r="I339" s="8">
-        <v>42848</v>
+        <v>42859</v>
       </c>
       <c r="J339" s="1" t="s">
         <v>14</v>
@@ -15717,10 +15715,10 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" s="6" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>17</v>
@@ -15732,16 +15730,16 @@
         <v>5</v>
       </c>
       <c r="F340" s="7">
-        <v>3.9</v>
+        <v>3.96</v>
       </c>
       <c r="G340" s="6">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="H340" s="6">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I340" s="8">
-        <v>42859</v>
+        <v>42870</v>
       </c>
       <c r="J340" s="1" t="s">
         <v>14</v>
@@ -15749,10 +15747,10 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341" s="6" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>17</v>
@@ -15761,19 +15759,19 @@
         <v>21</v>
       </c>
       <c r="E341" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F341" s="7">
-        <v>3.96</v>
+        <v>4.09</v>
       </c>
       <c r="G341" s="6">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="H341" s="6">
-        <v>2012</v>
+        <v>1977</v>
       </c>
       <c r="I341" s="8">
-        <v>42870</v>
+        <v>42883</v>
       </c>
       <c r="J341" s="1" t="s">
         <v>14</v>
@@ -15781,13 +15779,13 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342" s="6" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>640</v>
+        <v>523</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>21</v>
@@ -15796,16 +15794,16 @@
         <v>4</v>
       </c>
       <c r="F342" s="7">
-        <v>4.09</v>
+        <v>3.88</v>
       </c>
       <c r="G342" s="6">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="H342" s="6">
-        <v>1977</v>
+        <v>2012</v>
       </c>
       <c r="I342" s="8">
-        <v>42883</v>
+        <v>42898</v>
       </c>
       <c r="J342" s="1" t="s">
         <v>14</v>
@@ -15813,10 +15811,10 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>523</v>
+        <v>643</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>20</v>
@@ -15828,16 +15826,16 @@
         <v>4</v>
       </c>
       <c r="F343" s="7">
-        <v>3.88</v>
+        <v>3.53</v>
       </c>
       <c r="G343" s="6">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H343" s="6">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="I343" s="8">
-        <v>42898</v>
+        <v>42927</v>
       </c>
       <c r="J343" s="1" t="s">
         <v>14</v>
@@ -15845,31 +15843,31 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344" s="6" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E344" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F344" s="7">
-        <v>3.53</v>
+        <v>4.25</v>
       </c>
       <c r="G344" s="6">
-        <v>320</v>
+        <v>1008</v>
       </c>
       <c r="H344" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I344" s="8">
-        <v>42927</v>
+        <v>42946</v>
       </c>
       <c r="J344" s="1" t="s">
         <v>14</v>
@@ -15877,13 +15875,13 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345" s="6" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>21</v>
@@ -15892,16 +15890,16 @@
         <v>5</v>
       </c>
       <c r="F345" s="7">
-        <v>4.25</v>
+        <v>4.07</v>
       </c>
       <c r="G345" s="6">
-        <v>1008</v>
+        <v>798</v>
       </c>
       <c r="H345" s="6">
-        <v>2015</v>
+        <v>1321</v>
       </c>
       <c r="I345" s="8">
-        <v>42946</v>
+        <v>42953</v>
       </c>
       <c r="J345" s="1" t="s">
         <v>14</v>
@@ -15909,28 +15907,28 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346" s="6" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>647</v>
+        <v>256</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E346" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F346" s="7">
-        <v>4.07</v>
+        <v>3.45</v>
       </c>
       <c r="G346" s="6">
-        <v>798</v>
+        <v>289</v>
       </c>
       <c r="H346" s="6">
-        <v>1321</v>
+        <v>1959</v>
       </c>
       <c r="I346" s="8">
         <v>42953</v>
@@ -15941,31 +15939,31 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>17</v>
+        <v>329</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E347" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F347" s="7">
-        <v>3.45</v>
+        <v>3.84</v>
       </c>
       <c r="G347" s="6">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="H347" s="6">
-        <v>1959</v>
+        <v>1975</v>
       </c>
       <c r="I347" s="8">
-        <v>42953</v>
+        <v>42973</v>
       </c>
       <c r="J347" s="1" t="s">
         <v>14</v>
@@ -15973,28 +15971,28 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348" s="6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>328</v>
+        <v>651</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>329</v>
+        <v>24</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E348" s="6">
         <v>5</v>
       </c>
       <c r="F348" s="7">
-        <v>3.84</v>
+        <v>3.82</v>
       </c>
       <c r="G348" s="6">
-        <v>255</v>
+        <v>109</v>
       </c>
       <c r="H348" s="6">
-        <v>1975</v>
+        <v>1952</v>
       </c>
       <c r="I348" s="8">
         <v>42973</v>
@@ -16005,28 +16003,28 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349" s="6" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E349" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F349" s="7">
-        <v>3.82</v>
+        <v>3.66</v>
       </c>
       <c r="G349" s="6">
-        <v>109</v>
+        <v>329</v>
       </c>
       <c r="H349" s="6">
-        <v>1952</v>
+        <v>1856</v>
       </c>
       <c r="I349" s="8">
         <v>42973</v>
@@ -16037,28 +16035,28 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350" s="6" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>653</v>
+        <v>193</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E350" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F350" s="7">
-        <v>3.66</v>
+        <v>3.94</v>
       </c>
       <c r="G350" s="6">
-        <v>329</v>
+        <v>455</v>
       </c>
       <c r="H350" s="6">
-        <v>1856</v>
+        <v>1939</v>
       </c>
       <c r="I350" s="8">
         <v>42973</v>
@@ -16069,28 +16067,28 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351" s="6" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>193</v>
+        <v>656</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E351" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F351" s="7">
-        <v>3.94</v>
+        <v>4.09</v>
       </c>
       <c r="G351" s="6">
-        <v>455</v>
+        <v>204</v>
       </c>
       <c r="H351" s="6">
-        <v>1939</v>
+        <v>1947</v>
       </c>
       <c r="I351" s="8">
         <v>42973</v>
@@ -16101,31 +16099,31 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352" s="6" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E352" s="6">
         <v>5</v>
       </c>
       <c r="F352" s="7">
-        <v>4.09</v>
+        <v>3.79</v>
       </c>
       <c r="G352" s="6">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="H352" s="6">
-        <v>1947</v>
+        <v>1592</v>
       </c>
       <c r="I352" s="8">
-        <v>42973</v>
+        <v>42975</v>
       </c>
       <c r="J352" s="1" t="s">
         <v>14</v>
@@ -16133,31 +16131,31 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" s="6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E353" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F353" s="7">
-        <v>3.79</v>
+        <v>4</v>
       </c>
       <c r="G353" s="6">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="H353" s="6">
-        <v>1592</v>
+        <v>1992</v>
       </c>
       <c r="I353" s="8">
-        <v>42975</v>
+        <v>42978</v>
       </c>
       <c r="J353" s="1" t="s">
         <v>14</v>
@@ -16165,42 +16163,42 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354" s="6" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E354" s="6">
         <v>4</v>
       </c>
       <c r="F354" s="7">
-        <v>4</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G354" s="6">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="H354" s="6">
-        <v>1992</v>
+        <v>2014</v>
       </c>
       <c r="I354" s="8">
-        <v>42978</v>
+        <v>43004</v>
       </c>
       <c r="J354" s="1" t="s">
-        <v>14</v>
+        <v>663</v>
       </c>
     </row>
     <row r="355" spans="1:10">
       <c r="A355" s="6" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C355" s="6" t="s">
         <v>20</v>
@@ -16209,30 +16207,30 @@
         <v>21</v>
       </c>
       <c r="E355" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F355" s="7">
-        <v>4.2300000000000004</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G355" s="6">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H355" s="6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="I355" s="8">
-        <v>43004</v>
+        <v>43005</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>663</v>
+        <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:10">
       <c r="A356" s="6" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>20</v>
@@ -16241,33 +16239,33 @@
         <v>21</v>
       </c>
       <c r="E356" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F356" s="7">
-        <v>4.1900000000000004</v>
+        <v>4.12</v>
       </c>
       <c r="G356" s="6">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="H356" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I356" s="8">
-        <v>43005</v>
+        <v>43013</v>
       </c>
       <c r="J356" s="1" t="s">
-        <v>14</v>
+        <v>663</v>
       </c>
     </row>
     <row r="357" spans="1:10">
       <c r="A357" s="6" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>21</v>
@@ -16276,16 +16274,16 @@
         <v>3</v>
       </c>
       <c r="F357" s="7">
-        <v>4.12</v>
+        <v>3.61</v>
       </c>
       <c r="G357" s="6">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="H357" s="6">
-        <v>2016</v>
-      </c>
-      <c r="I357" s="8">
-        <v>43013</v>
+        <v>1997</v>
+      </c>
+      <c r="I357" s="10">
+        <v>43026</v>
       </c>
       <c r="J357" s="1" t="s">
         <v>663</v>
@@ -16293,63 +16291,63 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" s="6" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>669</v>
+        <v>523</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E358" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F358" s="7">
-        <v>3.61</v>
+        <v>3.92</v>
       </c>
       <c r="G358" s="6">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="H358" s="6">
-        <v>1997</v>
-      </c>
-      <c r="I358" s="10">
-        <v>43026</v>
+        <v>2017</v>
+      </c>
+      <c r="I358" s="8">
+        <v>43045</v>
       </c>
       <c r="J358" s="1" t="s">
-        <v>663</v>
+        <v>14</v>
       </c>
     </row>
     <row r="359" spans="1:10">
       <c r="A359" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>523</v>
+        <v>62</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E359" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F359" s="7">
-        <v>3.92</v>
+        <v>3.45</v>
       </c>
       <c r="G359" s="6">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="H359" s="6">
-        <v>2017</v>
-      </c>
-      <c r="I359" s="8">
-        <v>43045</v>
+        <v>2010</v>
+      </c>
+      <c r="I359" s="10">
+        <v>43051</v>
       </c>
       <c r="J359" s="1" t="s">
         <v>14</v>
@@ -16357,31 +16355,31 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>62</v>
+        <v>673</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E360" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F360" s="7">
-        <v>3.45</v>
+        <v>4.34</v>
       </c>
       <c r="G360" s="6">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="H360" s="6">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="I360" s="10">
-        <v>43051</v>
+        <v>43053</v>
       </c>
       <c r="J360" s="1" t="s">
         <v>14</v>
@@ -16389,13 +16387,13 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>13</v>
@@ -16404,16 +16402,16 @@
         <v>4</v>
       </c>
       <c r="F361" s="7">
-        <v>4.34</v>
+        <v>4.51</v>
       </c>
       <c r="G361" s="6">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="H361" s="6">
-        <v>2016</v>
+        <v>1984</v>
       </c>
       <c r="I361" s="10">
-        <v>43053</v>
+        <v>43061</v>
       </c>
       <c r="J361" s="1" t="s">
         <v>14</v>
@@ -16421,28 +16419,28 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" s="6" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E362" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F362" s="7">
-        <v>4.51</v>
+        <v>4.33</v>
       </c>
       <c r="G362" s="6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="H362" s="6">
-        <v>1984</v>
+        <v>2001</v>
       </c>
       <c r="I362" s="10">
         <v>43061</v>
@@ -16453,13 +16451,13 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>21</v>
@@ -16468,16 +16466,16 @@
         <v>5</v>
       </c>
       <c r="F363" s="7">
-        <v>4.33</v>
+        <v>4.18</v>
       </c>
       <c r="G363" s="6">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="H363" s="6">
-        <v>2001</v>
-      </c>
-      <c r="I363" s="10">
-        <v>43061</v>
+        <v>1950</v>
+      </c>
+      <c r="I363" s="8">
+        <v>43075</v>
       </c>
       <c r="J363" s="1" t="s">
         <v>14</v>
@@ -16485,13 +16483,13 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>21</v>
@@ -16500,16 +16498,16 @@
         <v>5</v>
       </c>
       <c r="F364" s="7">
-        <v>4.18</v>
+        <v>4.08</v>
       </c>
       <c r="G364" s="6">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="H364" s="6">
-        <v>1950</v>
+        <v>2013</v>
       </c>
       <c r="I364" s="8">
-        <v>43075</v>
+        <v>43077</v>
       </c>
       <c r="J364" s="1" t="s">
         <v>14</v>
@@ -16517,13 +16515,13 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>21</v>
@@ -16532,27 +16530,27 @@
         <v>5</v>
       </c>
       <c r="F365" s="7">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
       <c r="G365" s="6">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="H365" s="6">
-        <v>2013</v>
+        <v>1963</v>
       </c>
       <c r="I365" s="8">
-        <v>43077</v>
+        <v>43131</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>14</v>
+        <v>663</v>
       </c>
     </row>
     <row r="366" spans="1:10">
       <c r="A366" s="6" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>17</v>
@@ -16561,19 +16559,19 @@
         <v>21</v>
       </c>
       <c r="E366" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F366" s="7">
-        <v>3.99</v>
+        <v>3.61</v>
       </c>
       <c r="G366" s="6">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="H366" s="6">
-        <v>1963</v>
+        <v>2003</v>
       </c>
       <c r="I366" s="8">
-        <v>43131</v>
+        <v>43137</v>
       </c>
       <c r="J366" s="1" t="s">
         <v>663</v>
@@ -16581,31 +16579,31 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367" s="6" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>684</v>
+        <v>388</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E367" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F367" s="7">
-        <v>3.61</v>
+        <v>4.38</v>
       </c>
       <c r="G367" s="6">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="H367" s="6">
-        <v>2003</v>
+        <v>1883</v>
       </c>
       <c r="I367" s="8">
-        <v>43137</v>
+        <v>43144</v>
       </c>
       <c r="J367" s="1" t="s">
         <v>663</v>
@@ -16613,31 +16611,31 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368" s="6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>388</v>
+        <v>687</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E368" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F368" s="7">
-        <v>4.38</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G368" s="6">
-        <v>338</v>
+        <v>1305</v>
       </c>
       <c r="H368" s="6">
-        <v>1883</v>
+        <v>1978</v>
       </c>
       <c r="I368" s="8">
-        <v>43144</v>
+        <v>43147</v>
       </c>
       <c r="J368" s="1" t="s">
         <v>663</v>
@@ -16645,13 +16643,13 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>21</v>
@@ -16660,45 +16658,45 @@
         <v>4</v>
       </c>
       <c r="F369" s="7">
-        <v>4.3499999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="G369" s="6">
-        <v>1305</v>
+        <v>352</v>
       </c>
       <c r="H369" s="6">
-        <v>1978</v>
+        <v>2009</v>
       </c>
       <c r="I369" s="8">
         <v>43147</v>
       </c>
       <c r="J369" s="1" t="s">
-        <v>663</v>
+        <v>14</v>
       </c>
     </row>
     <row r="370" spans="1:10">
       <c r="A370" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E370" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F370" s="7">
-        <v>4.0199999999999996</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G370" s="6">
         <v>352</v>
       </c>
       <c r="H370" s="6">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="I370" s="8">
         <v>43147</v>
@@ -16709,31 +16707,29 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="C371" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="C371" s="6"/>
       <c r="D371" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E371" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F371" s="7">
-        <v>4.6500000000000004</v>
+        <v>4.05</v>
       </c>
       <c r="G371" s="6">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="H371" s="6">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I371" s="8">
-        <v>43147</v>
+        <v>43156</v>
       </c>
       <c r="J371" s="1" t="s">
         <v>14</v>
@@ -16741,43 +16737,45 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372" s="6" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="C372" s="6"/>
+        <v>159</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D372" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E372" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F372" s="7">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="G372" s="6">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H372" s="6">
-        <v>2015</v>
+        <v>1603</v>
       </c>
       <c r="I372" s="8">
-        <v>43156</v>
+        <v>43164</v>
       </c>
       <c r="J372" s="1" t="s">
-        <v>14</v>
+        <v>663</v>
       </c>
     </row>
     <row r="373" spans="1:10">
       <c r="A373" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>21</v>
@@ -16786,16 +16784,16 @@
         <v>5</v>
       </c>
       <c r="F373" s="7">
-        <v>4.01</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G373" s="6">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="H373" s="6">
-        <v>1603</v>
+        <v>1942</v>
       </c>
       <c r="I373" s="8">
-        <v>43164</v>
+        <v>43189</v>
       </c>
       <c r="J373" s="1" t="s">
         <v>663</v>
@@ -16803,31 +16801,31 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>161</v>
+        <v>594</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E374" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F374" s="7">
-        <v>4.1399999999999997</v>
+        <v>3.65</v>
       </c>
       <c r="G374" s="6">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="H374" s="6">
-        <v>1942</v>
+        <v>1774</v>
       </c>
       <c r="I374" s="8">
-        <v>43189</v>
+        <v>43203</v>
       </c>
       <c r="J374" s="1" t="s">
         <v>663</v>
@@ -16835,31 +16833,31 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375" s="6" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>594</v>
+        <v>698</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E375" s="6">
         <v>3</v>
       </c>
       <c r="F375" s="7">
-        <v>3.65</v>
+        <v>4.21</v>
       </c>
       <c r="G375" s="6">
-        <v>149</v>
+        <v>604</v>
       </c>
       <c r="H375" s="6">
-        <v>1774</v>
+        <v>1965</v>
       </c>
       <c r="I375" s="8">
-        <v>43203</v>
+        <v>43214</v>
       </c>
       <c r="J375" s="1" t="s">
         <v>663</v>
@@ -16867,109 +16865,109 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376" s="6" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E376" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F376" s="7">
-        <v>4.21</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="G376" s="6">
-        <v>604</v>
+        <v>384</v>
       </c>
       <c r="H376" s="6">
-        <v>1965</v>
+        <v>2017</v>
       </c>
       <c r="I376" s="8">
-        <v>43214</v>
+        <v>43218</v>
       </c>
       <c r="J376" s="1" t="s">
-        <v>663</v>
+        <v>701</v>
       </c>
     </row>
     <row r="377" spans="1:10">
       <c r="A377" s="6" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E377" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F377" s="7">
-        <v>4.3099999999999996</v>
+        <v>3.73</v>
       </c>
       <c r="G377" s="6">
-        <v>384</v>
+        <v>128</v>
       </c>
       <c r="H377" s="6">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="I377" s="8">
-        <v>43218</v>
+        <v>43249</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>701</v>
+        <v>14</v>
       </c>
     </row>
     <row r="378" spans="1:10">
       <c r="A378" s="6" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E378" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F378" s="7">
-        <v>3.73</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G378" s="6">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="H378" s="6">
-        <v>2003</v>
+        <v>1946</v>
       </c>
       <c r="I378" s="8">
         <v>43249</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>14</v>
+        <v>663</v>
       </c>
     </row>
     <row r="379" spans="1:10">
       <c r="A379" s="6" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>21</v>
@@ -16978,144 +16976,144 @@
         <v>4</v>
       </c>
       <c r="F379" s="7">
-        <v>4.3499999999999996</v>
+        <v>4.22</v>
       </c>
       <c r="G379" s="6">
-        <v>165</v>
+        <v>384</v>
       </c>
       <c r="H379" s="6">
-        <v>1946</v>
+        <v>1904</v>
       </c>
       <c r="I379" s="8">
-        <v>43249</v>
+        <v>43261</v>
       </c>
       <c r="J379" s="1" t="s">
-        <v>663</v>
+        <v>701</v>
       </c>
     </row>
     <row r="380" spans="1:10">
       <c r="A380" s="6" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>31</v>
+        <v>710</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>21</v>
+        <v>330</v>
       </c>
       <c r="E380" s="6">
         <v>4</v>
       </c>
       <c r="F380" s="7">
-        <v>4.22</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G380" s="6">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="H380" s="6">
-        <v>1904</v>
+        <v>1995</v>
       </c>
       <c r="I380" s="8">
-        <v>43261</v>
+        <v>43296</v>
       </c>
       <c r="J380" s="1" t="s">
-        <v>701</v>
+        <v>663</v>
       </c>
     </row>
     <row r="381" spans="1:10">
       <c r="A381" s="6" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>710</v>
+        <v>20</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>330</v>
+        <v>13</v>
       </c>
       <c r="E381" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F381" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.07</v>
       </c>
       <c r="G381" s="6">
-        <v>329</v>
+        <v>512</v>
       </c>
       <c r="H381" s="6">
-        <v>1995</v>
+        <v>2011</v>
       </c>
       <c r="I381" s="8">
-        <v>43296</v>
+        <v>43371</v>
       </c>
       <c r="J381" s="1" t="s">
-        <v>663</v>
+        <v>14</v>
       </c>
     </row>
     <row r="382" spans="1:10">
       <c r="A382" s="6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>20</v>
+        <v>715</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E382" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F382" s="7">
-        <v>4.07</v>
+        <v>3.58</v>
       </c>
       <c r="G382" s="6">
-        <v>512</v>
+        <v>188</v>
       </c>
       <c r="H382" s="6">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="I382" s="8">
-        <v>43371</v>
+        <v>43384</v>
       </c>
       <c r="J382" s="1" t="s">
-        <v>14</v>
+        <v>701</v>
       </c>
     </row>
     <row r="383" spans="1:10">
-      <c r="A383" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="B383" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="C383" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="D383" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E383" s="6">
+      <c r="A383" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E383" s="1">
         <v>4</v>
       </c>
-      <c r="F383" s="7">
-        <v>3.58</v>
-      </c>
-      <c r="G383" s="6">
-        <v>188</v>
-      </c>
-      <c r="H383" s="6">
-        <v>2007</v>
+      <c r="F383" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="G383" s="1">
+        <v>168</v>
+      </c>
+      <c r="H383" s="1">
+        <v>1781</v>
       </c>
       <c r="I383" s="8">
-        <v>43384</v>
+        <v>43388</v>
       </c>
       <c r="J383" s="1" t="s">
         <v>701</v>
@@ -17123,7 +17121,7 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>717</v>
@@ -17138,16 +17136,16 @@
         <v>4</v>
       </c>
       <c r="F384" s="2">
-        <v>3.57</v>
+        <v>3.36</v>
       </c>
       <c r="G384" s="1">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="H384" s="1">
-        <v>1781</v>
+        <v>1804</v>
       </c>
       <c r="I384" s="8">
-        <v>43388</v>
+        <v>43390</v>
       </c>
       <c r="J384" s="1" t="s">
         <v>701</v>
@@ -17155,7 +17153,7 @@
     </row>
     <row r="385" spans="1:1024">
       <c r="A385" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>717</v>
@@ -17167,19 +17165,19 @@
         <v>97</v>
       </c>
       <c r="E385" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F385" s="2">
-        <v>3.36</v>
+        <v>3.24</v>
       </c>
       <c r="G385" s="1">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H385" s="1">
-        <v>1804</v>
+        <v>1784</v>
       </c>
       <c r="I385" s="8">
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="J385" s="1" t="s">
         <v>701</v>
@@ -17187,7 +17185,7 @@
     </row>
     <row r="386" spans="1:1024">
       <c r="A386" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>717</v>
@@ -17199,19 +17197,19 @@
         <v>97</v>
       </c>
       <c r="E386" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F386" s="2">
-        <v>3.24</v>
+        <v>3.48</v>
       </c>
       <c r="G386" s="1">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="H386" s="1">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="I386" s="8">
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="J386" s="1" t="s">
         <v>701</v>
@@ -17219,7 +17217,7 @@
     </row>
     <row r="387" spans="1:1024">
       <c r="A387" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>717</v>
@@ -17234,16 +17232,16 @@
         <v>3</v>
       </c>
       <c r="F387" s="2">
-        <v>3.48</v>
+        <v>3.47</v>
       </c>
       <c r="G387" s="1">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="H387" s="1">
-        <v>1787</v>
+        <v>1800</v>
       </c>
       <c r="I387" s="8">
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="J387" s="1" t="s">
         <v>701</v>
@@ -17251,10 +17249,10 @@
     </row>
     <row r="388" spans="1:1024">
       <c r="A388" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>51</v>
@@ -17266,16 +17264,16 @@
         <v>3</v>
       </c>
       <c r="F388" s="2">
-        <v>3.47</v>
+        <v>3.1</v>
       </c>
       <c r="G388" s="1">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="H388" s="1">
-        <v>1800</v>
+        <v>1772</v>
       </c>
       <c r="I388" s="8">
-        <v>43396</v>
+        <v>43398</v>
       </c>
       <c r="J388" s="1" t="s">
         <v>701</v>
@@ -17283,7 +17281,7 @@
     </row>
     <row r="389" spans="1:1024">
       <c r="A389" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>723</v>
@@ -17298,16 +17296,16 @@
         <v>3</v>
       </c>
       <c r="F389" s="2">
-        <v>3.1</v>
+        <v>3.52</v>
       </c>
       <c r="G389" s="1">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="H389" s="1">
-        <v>1772</v>
+        <v>1779</v>
       </c>
       <c r="I389" s="8">
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="J389" s="1" t="s">
         <v>701</v>
@@ -17315,42 +17313,42 @@
     </row>
     <row r="390" spans="1:1024">
       <c r="A390" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E390" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F390" s="2">
-        <v>3.52</v>
+        <v>5</v>
       </c>
       <c r="G390" s="1">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="H390" s="1">
-        <v>1779</v>
+        <v>201</v>
       </c>
       <c r="I390" s="8">
-        <v>43399</v>
+        <v>43404</v>
       </c>
       <c r="J390" s="1" t="s">
-        <v>701</v>
+        <v>14</v>
       </c>
     </row>
     <row r="391" spans="1:1024">
       <c r="A391" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>17</v>
@@ -17359,19 +17357,19 @@
         <v>21</v>
       </c>
       <c r="E391" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F391" s="2">
-        <v>5</v>
+        <v>4.08</v>
       </c>
       <c r="G391" s="1">
-        <v>137</v>
+        <v>400</v>
       </c>
       <c r="H391" s="1">
-        <v>201</v>
+        <v>2011</v>
       </c>
       <c r="I391" s="8">
-        <v>43404</v>
+        <v>43405</v>
       </c>
       <c r="J391" s="1" t="s">
         <v>14</v>
@@ -17379,10 +17377,10 @@
     </row>
     <row r="392" spans="1:1024">
       <c r="A392" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>17</v>
@@ -17394,85 +17392,85 @@
         <v>5</v>
       </c>
       <c r="F392" s="2">
-        <v>4.08</v>
+        <v>3.87</v>
       </c>
       <c r="G392" s="1">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="H392" s="1">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="I392" s="8">
-        <v>43405</v>
+        <v>43420</v>
       </c>
       <c r="J392" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="1:1024">
-      <c r="A393" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D393" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E393" s="1">
-        <v>5</v>
-      </c>
-      <c r="F393" s="2">
-        <v>3.87</v>
-      </c>
-      <c r="G393" s="1">
-        <v>347</v>
-      </c>
-      <c r="H393" s="1">
-        <v>2017</v>
-      </c>
-      <c r="I393" s="8">
-        <v>43420</v>
-      </c>
-      <c r="J393" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1024" s="11" customFormat="1">
-      <c r="A394" s="11" t="s">
+    <row r="393" spans="1:1024" s="11" customFormat="1">
+      <c r="A393" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="B394" s="11" t="s">
+      <c r="B393" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="C394" s="11" t="s">
+      <c r="C393" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D394" s="11" t="s">
+      <c r="D393" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="F394" s="12"/>
-      <c r="G394" s="11">
+      <c r="F393" s="12"/>
+      <c r="G393" s="11">
         <v>88</v>
       </c>
-      <c r="H394" s="11">
+      <c r="H393" s="11">
         <v>1945</v>
       </c>
-      <c r="J394" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AMI394" s="13"/>
-      <c r="AMJ394"/>
+      <c r="J393" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMI393" s="13"/>
+      <c r="AMJ393"/>
+    </row>
+    <row r="394" spans="1:1024">
+      <c r="A394" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E394" s="1">
+        <v>4</v>
+      </c>
+      <c r="F394" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="G394" s="1">
+        <v>448</v>
+      </c>
+      <c r="H394" s="1">
+        <v>1215</v>
+      </c>
+      <c r="I394" s="8">
+        <v>43437</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="395" spans="1:1024">
       <c r="A395" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>51</v>
@@ -17481,19 +17479,19 @@
         <v>97</v>
       </c>
       <c r="E395" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F395" s="2">
-        <v>3.81</v>
+        <v>3.47</v>
       </c>
       <c r="G395" s="1">
-        <v>448</v>
+        <v>74</v>
       </c>
       <c r="H395" s="1">
-        <v>1215</v>
+        <v>1350</v>
       </c>
       <c r="I395" s="8">
-        <v>43437</v>
+        <v>43438</v>
       </c>
       <c r="J395" s="1" t="s">
         <v>701</v>
@@ -17501,10 +17499,10 @@
     </row>
     <row r="396" spans="1:1024">
       <c r="A396" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>51</v>
@@ -17516,16 +17514,16 @@
         <v>3</v>
       </c>
       <c r="F396" s="2">
-        <v>3.47</v>
+        <v>4.01</v>
       </c>
       <c r="G396" s="1">
-        <v>74</v>
+        <v>474</v>
       </c>
       <c r="H396" s="1">
-        <v>1350</v>
+        <v>2017</v>
       </c>
       <c r="I396" s="8">
-        <v>43438</v>
+        <v>43443</v>
       </c>
       <c r="J396" s="1" t="s">
         <v>701</v>
@@ -17533,7 +17531,7 @@
     </row>
     <row r="397" spans="1:1024">
       <c r="A397" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>738</v>
@@ -17545,19 +17543,19 @@
         <v>97</v>
       </c>
       <c r="E397" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F397" s="2">
-        <v>4.01</v>
+        <v>3.72</v>
       </c>
       <c r="G397" s="1">
-        <v>474</v>
+        <v>302</v>
       </c>
       <c r="H397" s="1">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="I397" s="8">
-        <v>43443</v>
+        <v>43458</v>
       </c>
       <c r="J397" s="1" t="s">
         <v>701</v>
@@ -17565,31 +17563,31 @@
     </row>
     <row r="398" spans="1:1024">
       <c r="A398" s="1" t="s">
-        <v>739</v>
+        <v>59</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>738</v>
+        <v>60</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E398" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F398" s="2">
-        <v>3.72</v>
-      </c>
-      <c r="G398" s="1">
-        <v>302</v>
-      </c>
-      <c r="H398" s="1">
-        <v>2005</v>
+        <v>3.98</v>
+      </c>
+      <c r="G398" s="6">
+        <v>488</v>
+      </c>
+      <c r="H398" s="6">
+        <v>1897</v>
       </c>
       <c r="I398" s="8">
-        <v>43458</v>
+        <v>43413</v>
       </c>
       <c r="J398" s="1" t="s">
         <v>701</v>
@@ -17597,13 +17595,13 @@
     </row>
     <row r="399" spans="1:1024">
       <c r="A399" s="1" t="s">
-        <v>59</v>
+        <v>740</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>60</v>
+        <v>741</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>97</v>
@@ -17612,16 +17610,13 @@
         <v>4</v>
       </c>
       <c r="F399" s="2">
-        <v>3.98</v>
-      </c>
-      <c r="G399" s="6">
-        <v>488</v>
-      </c>
-      <c r="H399" s="6">
-        <v>1897</v>
+        <v>4.29</v>
+      </c>
+      <c r="H399" s="1">
+        <v>1941</v>
       </c>
       <c r="I399" s="8">
-        <v>43413</v>
+        <v>43455</v>
       </c>
       <c r="J399" s="1" t="s">
         <v>701</v>
@@ -17629,28 +17624,31 @@
     </row>
     <row r="400" spans="1:1024">
       <c r="A400" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>741</v>
+        <v>594</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E400" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F400" s="2">
-        <v>4.29</v>
+        <v>3.98</v>
+      </c>
+      <c r="G400" s="1">
+        <v>135</v>
       </c>
       <c r="H400" s="1">
-        <v>1941</v>
+        <v>1986</v>
       </c>
       <c r="I400" s="8">
-        <v>43455</v>
+        <v>43460</v>
       </c>
       <c r="J400" s="1" t="s">
         <v>701</v>
@@ -17658,13 +17656,13 @@
     </row>
     <row r="401" spans="1:1024">
       <c r="A401" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>594</v>
+        <v>744</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>51</v>
+        <v>745</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>97</v>
@@ -17673,59 +17671,38 @@
         <v>5</v>
       </c>
       <c r="F401" s="2">
-        <v>3.98</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="G401" s="1">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="H401" s="1">
-        <v>1986</v>
+        <v>2018</v>
       </c>
       <c r="I401" s="8">
-        <v>43460</v>
+        <v>43458</v>
       </c>
       <c r="J401" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1024">
-      <c r="A402" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E402" s="1">
-        <v>5</v>
-      </c>
-      <c r="F402" s="2">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="G402" s="1">
-        <v>160</v>
-      </c>
-      <c r="H402" s="1">
-        <v>2018</v>
-      </c>
-      <c r="I402" s="8">
-        <v>43458</v>
-      </c>
-      <c r="J402" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1024" s="11" customFormat="1">
+      <c r="A402" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="B402" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="F402" s="12"/>
+      <c r="AMI402" s="13"/>
+      <c r="AMJ402"/>
     </row>
     <row r="403" spans="1:1024" s="11" customFormat="1">
       <c r="A403" s="11" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F403" s="12"/>
       <c r="AMI403" s="13"/>
@@ -17733,25 +17710,14 @@
     </row>
     <row r="404" spans="1:1024" s="11" customFormat="1">
       <c r="A404" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="B404" s="11" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F404" s="12"/>
       <c r="AMI404" s="13"/>
       <c r="AMJ404"/>
     </row>
-    <row r="405" spans="1:1024" s="11" customFormat="1">
-      <c r="A405" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="F405" s="12"/>
-      <c r="AMI405" s="13"/>
-      <c r="AMJ405"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J382"/>
+  <autoFilter ref="A1:J381"/>
   <conditionalFormatting sqref="E43">
     <cfRule type="expression" priority="2">
       <formula>0</formula>

--- a/goodreads_library_read.xlsx
+++ b/goodreads_library_read.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2720" windowWidth="31240" windowHeight="22360" tabRatio="500"/>
+    <workbookView xWindow="4500" yWindow="1880" windowWidth="31240" windowHeight="22360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="goodreads_library_read" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">goodreads_library_read!$A$1:$J$381</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">goodreads_library_read!$A$1:$J$382</definedName>
   </definedNames>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="751">
   <si>
     <t>Title</t>
   </si>
@@ -2376,7 +2376,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2389,8 +2389,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2410,19 +2418,28 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="20">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Link" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2820,11 +2837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ404"/>
+  <dimension ref="A1:AMJ405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P312" sqref="P312"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3385,7 +3402,7 @@
         <v>41169</v>
       </c>
       <c r="J17" t="s">
-        <v>701</v>
+        <v>14</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -9856,8 +9873,8 @@
       <c r="I156" s="8">
         <v>41483</v>
       </c>
-      <c r="J156" s="1" t="s">
-        <v>14</v>
+      <c r="J156" s="17" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -11012,7 +11029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:1022">
       <c r="A193" s="6" t="s">
         <v>375</v>
       </c>
@@ -11044,30 +11061,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:1022">
       <c r="A194" s="6" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E194" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F194" s="7">
-        <v>3.42</v>
+        <v>3.67</v>
       </c>
       <c r="G194" s="6">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="H194" s="6">
-        <v>1899</v>
+        <v>1880</v>
       </c>
       <c r="I194" s="8">
         <v>41679</v>
@@ -11076,9 +11093,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:1022">
       <c r="A195" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>46</v>
@@ -11090,16 +11107,16 @@
         <v>21</v>
       </c>
       <c r="E195" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F195" s="7">
-        <v>3.67</v>
+        <v>3.37</v>
       </c>
       <c r="G195" s="6">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="H195" s="6">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="I195" s="8">
         <v>41679</v>
@@ -11108,12 +11125,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:1022">
       <c r="A196" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>17</v>
@@ -11122,16 +11139,16 @@
         <v>21</v>
       </c>
       <c r="E196" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F196" s="7">
-        <v>3.37</v>
+        <v>3.91</v>
       </c>
       <c r="G196" s="6">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H196" s="6">
-        <v>1878</v>
+        <v>1841</v>
       </c>
       <c r="I196" s="8">
         <v>41679</v>
@@ -11140,15 +11157,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:1022">
       <c r="A197" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>21</v>
@@ -11157,13 +11174,13 @@
         <v>3</v>
       </c>
       <c r="F197" s="7">
-        <v>3.91</v>
+        <v>3.53</v>
       </c>
       <c r="G197" s="6">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="H197" s="6">
-        <v>1841</v>
+        <v>1848</v>
       </c>
       <c r="I197" s="8">
         <v>41679</v>
@@ -11172,71 +11189,1083 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:1022">
       <c r="A198" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E198" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F198" s="7">
-        <v>3.53</v>
+        <v>4.26</v>
       </c>
       <c r="G198" s="6">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="H198" s="6">
-        <v>1848</v>
+        <v>1857</v>
       </c>
       <c r="I198" s="8">
-        <v>41679</v>
+        <v>41686</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
-      <c r="A199" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E199" s="6">
-        <v>4</v>
-      </c>
-      <c r="F199" s="7">
-        <v>4.26</v>
-      </c>
-      <c r="G199" s="6">
-        <v>194</v>
-      </c>
-      <c r="H199" s="6">
-        <v>1857</v>
+    <row r="199" spans="1:1022">
+      <c r="A199" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E199" s="15">
+        <v>5</v>
+      </c>
+      <c r="F199" s="16">
+        <v>3.94</v>
+      </c>
+      <c r="G199" s="15">
+        <v>298</v>
+      </c>
+      <c r="H199" s="15">
+        <v>1595</v>
       </c>
       <c r="I199" s="8">
-        <v>41686</v>
-      </c>
-      <c r="J199" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>41688</v>
+      </c>
+      <c r="J199" t="s">
+        <v>701</v>
+      </c>
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199"/>
+      <c r="O199"/>
+      <c r="P199"/>
+      <c r="Q199"/>
+      <c r="R199"/>
+      <c r="S199"/>
+      <c r="T199"/>
+      <c r="U199"/>
+      <c r="V199"/>
+      <c r="W199"/>
+      <c r="X199"/>
+      <c r="Y199"/>
+      <c r="Z199"/>
+      <c r="AA199"/>
+      <c r="AB199"/>
+      <c r="AC199"/>
+      <c r="AD199"/>
+      <c r="AE199"/>
+      <c r="AF199"/>
+      <c r="AG199"/>
+      <c r="AH199"/>
+      <c r="AI199"/>
+      <c r="AJ199"/>
+      <c r="AK199"/>
+      <c r="AL199"/>
+      <c r="AM199"/>
+      <c r="AN199"/>
+      <c r="AO199"/>
+      <c r="AP199"/>
+      <c r="AQ199"/>
+      <c r="AR199"/>
+      <c r="AS199"/>
+      <c r="AT199"/>
+      <c r="AU199"/>
+      <c r="AV199"/>
+      <c r="AW199"/>
+      <c r="AX199"/>
+      <c r="AY199"/>
+      <c r="AZ199"/>
+      <c r="BA199"/>
+      <c r="BB199"/>
+      <c r="BC199"/>
+      <c r="BD199"/>
+      <c r="BE199"/>
+      <c r="BF199"/>
+      <c r="BG199"/>
+      <c r="BH199"/>
+      <c r="BI199"/>
+      <c r="BJ199"/>
+      <c r="BK199"/>
+      <c r="BL199"/>
+      <c r="BM199"/>
+      <c r="BN199"/>
+      <c r="BO199"/>
+      <c r="BP199"/>
+      <c r="BQ199"/>
+      <c r="BR199"/>
+      <c r="BS199"/>
+      <c r="BT199"/>
+      <c r="BU199"/>
+      <c r="BV199"/>
+      <c r="BW199"/>
+      <c r="BX199"/>
+      <c r="BY199"/>
+      <c r="BZ199"/>
+      <c r="CA199"/>
+      <c r="CB199"/>
+      <c r="CC199"/>
+      <c r="CD199"/>
+      <c r="CE199"/>
+      <c r="CF199"/>
+      <c r="CG199"/>
+      <c r="CH199"/>
+      <c r="CI199"/>
+      <c r="CJ199"/>
+      <c r="CK199"/>
+      <c r="CL199"/>
+      <c r="CM199"/>
+      <c r="CN199"/>
+      <c r="CO199"/>
+      <c r="CP199"/>
+      <c r="CQ199"/>
+      <c r="CR199"/>
+      <c r="CS199"/>
+      <c r="CT199"/>
+      <c r="CU199"/>
+      <c r="CV199"/>
+      <c r="CW199"/>
+      <c r="CX199"/>
+      <c r="CY199"/>
+      <c r="CZ199"/>
+      <c r="DA199"/>
+      <c r="DB199"/>
+      <c r="DC199"/>
+      <c r="DD199"/>
+      <c r="DE199"/>
+      <c r="DF199"/>
+      <c r="DG199"/>
+      <c r="DH199"/>
+      <c r="DI199"/>
+      <c r="DJ199"/>
+      <c r="DK199"/>
+      <c r="DL199"/>
+      <c r="DM199"/>
+      <c r="DN199"/>
+      <c r="DO199"/>
+      <c r="DP199"/>
+      <c r="DQ199"/>
+      <c r="DR199"/>
+      <c r="DS199"/>
+      <c r="DT199"/>
+      <c r="DU199"/>
+      <c r="DV199"/>
+      <c r="DW199"/>
+      <c r="DX199"/>
+      <c r="DY199"/>
+      <c r="DZ199"/>
+      <c r="EA199"/>
+      <c r="EB199"/>
+      <c r="EC199"/>
+      <c r="ED199"/>
+      <c r="EE199"/>
+      <c r="EF199"/>
+      <c r="EG199"/>
+      <c r="EH199"/>
+      <c r="EI199"/>
+      <c r="EJ199"/>
+      <c r="EK199"/>
+      <c r="EL199"/>
+      <c r="EM199"/>
+      <c r="EN199"/>
+      <c r="EO199"/>
+      <c r="EP199"/>
+      <c r="EQ199"/>
+      <c r="ER199"/>
+      <c r="ES199"/>
+      <c r="ET199"/>
+      <c r="EU199"/>
+      <c r="EV199"/>
+      <c r="EW199"/>
+      <c r="EX199"/>
+      <c r="EY199"/>
+      <c r="EZ199"/>
+      <c r="FA199"/>
+      <c r="FB199"/>
+      <c r="FC199"/>
+      <c r="FD199"/>
+      <c r="FE199"/>
+      <c r="FF199"/>
+      <c r="FG199"/>
+      <c r="FH199"/>
+      <c r="FI199"/>
+      <c r="FJ199"/>
+      <c r="FK199"/>
+      <c r="FL199"/>
+      <c r="FM199"/>
+      <c r="FN199"/>
+      <c r="FO199"/>
+      <c r="FP199"/>
+      <c r="FQ199"/>
+      <c r="FR199"/>
+      <c r="FS199"/>
+      <c r="FT199"/>
+      <c r="FU199"/>
+      <c r="FV199"/>
+      <c r="FW199"/>
+      <c r="FX199"/>
+      <c r="FY199"/>
+      <c r="FZ199"/>
+      <c r="GA199"/>
+      <c r="GB199"/>
+      <c r="GC199"/>
+      <c r="GD199"/>
+      <c r="GE199"/>
+      <c r="GF199"/>
+      <c r="GG199"/>
+      <c r="GH199"/>
+      <c r="GI199"/>
+      <c r="GJ199"/>
+      <c r="GK199"/>
+      <c r="GL199"/>
+      <c r="GM199"/>
+      <c r="GN199"/>
+      <c r="GO199"/>
+      <c r="GP199"/>
+      <c r="GQ199"/>
+      <c r="GR199"/>
+      <c r="GS199"/>
+      <c r="GT199"/>
+      <c r="GU199"/>
+      <c r="GV199"/>
+      <c r="GW199"/>
+      <c r="GX199"/>
+      <c r="GY199"/>
+      <c r="GZ199"/>
+      <c r="HA199"/>
+      <c r="HB199"/>
+      <c r="HC199"/>
+      <c r="HD199"/>
+      <c r="HE199"/>
+      <c r="HF199"/>
+      <c r="HG199"/>
+      <c r="HH199"/>
+      <c r="HI199"/>
+      <c r="HJ199"/>
+      <c r="HK199"/>
+      <c r="HL199"/>
+      <c r="HM199"/>
+      <c r="HN199"/>
+      <c r="HO199"/>
+      <c r="HP199"/>
+      <c r="HQ199"/>
+      <c r="HR199"/>
+      <c r="HS199"/>
+      <c r="HT199"/>
+      <c r="HU199"/>
+      <c r="HV199"/>
+      <c r="HW199"/>
+      <c r="HX199"/>
+      <c r="HY199"/>
+      <c r="HZ199"/>
+      <c r="IA199"/>
+      <c r="IB199"/>
+      <c r="IC199"/>
+      <c r="ID199"/>
+      <c r="IE199"/>
+      <c r="IF199"/>
+      <c r="IG199"/>
+      <c r="IH199"/>
+      <c r="II199"/>
+      <c r="IJ199"/>
+      <c r="IK199"/>
+      <c r="IL199"/>
+      <c r="IM199"/>
+      <c r="IN199"/>
+      <c r="IO199"/>
+      <c r="IP199"/>
+      <c r="IQ199"/>
+      <c r="IR199"/>
+      <c r="IS199"/>
+      <c r="IT199"/>
+      <c r="IU199"/>
+      <c r="IV199"/>
+      <c r="IW199"/>
+      <c r="IX199"/>
+      <c r="IY199"/>
+      <c r="IZ199"/>
+      <c r="JA199"/>
+      <c r="JB199"/>
+      <c r="JC199"/>
+      <c r="JD199"/>
+      <c r="JE199"/>
+      <c r="JF199"/>
+      <c r="JG199"/>
+      <c r="JH199"/>
+      <c r="JI199"/>
+      <c r="JJ199"/>
+      <c r="JK199"/>
+      <c r="JL199"/>
+      <c r="JM199"/>
+      <c r="JN199"/>
+      <c r="JO199"/>
+      <c r="JP199"/>
+      <c r="JQ199"/>
+      <c r="JR199"/>
+      <c r="JS199"/>
+      <c r="JT199"/>
+      <c r="JU199"/>
+      <c r="JV199"/>
+      <c r="JW199"/>
+      <c r="JX199"/>
+      <c r="JY199"/>
+      <c r="JZ199"/>
+      <c r="KA199"/>
+      <c r="KB199"/>
+      <c r="KC199"/>
+      <c r="KD199"/>
+      <c r="KE199"/>
+      <c r="KF199"/>
+      <c r="KG199"/>
+      <c r="KH199"/>
+      <c r="KI199"/>
+      <c r="KJ199"/>
+      <c r="KK199"/>
+      <c r="KL199"/>
+      <c r="KM199"/>
+      <c r="KN199"/>
+      <c r="KO199"/>
+      <c r="KP199"/>
+      <c r="KQ199"/>
+      <c r="KR199"/>
+      <c r="KS199"/>
+      <c r="KT199"/>
+      <c r="KU199"/>
+      <c r="KV199"/>
+      <c r="KW199"/>
+      <c r="KX199"/>
+      <c r="KY199"/>
+      <c r="KZ199"/>
+      <c r="LA199"/>
+      <c r="LB199"/>
+      <c r="LC199"/>
+      <c r="LD199"/>
+      <c r="LE199"/>
+      <c r="LF199"/>
+      <c r="LG199"/>
+      <c r="LH199"/>
+      <c r="LI199"/>
+      <c r="LJ199"/>
+      <c r="LK199"/>
+      <c r="LL199"/>
+      <c r="LM199"/>
+      <c r="LN199"/>
+      <c r="LO199"/>
+      <c r="LP199"/>
+      <c r="LQ199"/>
+      <c r="LR199"/>
+      <c r="LS199"/>
+      <c r="LT199"/>
+      <c r="LU199"/>
+      <c r="LV199"/>
+      <c r="LW199"/>
+      <c r="LX199"/>
+      <c r="LY199"/>
+      <c r="LZ199"/>
+      <c r="MA199"/>
+      <c r="MB199"/>
+      <c r="MC199"/>
+      <c r="MD199"/>
+      <c r="ME199"/>
+      <c r="MF199"/>
+      <c r="MG199"/>
+      <c r="MH199"/>
+      <c r="MI199"/>
+      <c r="MJ199"/>
+      <c r="MK199"/>
+      <c r="ML199"/>
+      <c r="MM199"/>
+      <c r="MN199"/>
+      <c r="MO199"/>
+      <c r="MP199"/>
+      <c r="MQ199"/>
+      <c r="MR199"/>
+      <c r="MS199"/>
+      <c r="MT199"/>
+      <c r="MU199"/>
+      <c r="MV199"/>
+      <c r="MW199"/>
+      <c r="MX199"/>
+      <c r="MY199"/>
+      <c r="MZ199"/>
+      <c r="NA199"/>
+      <c r="NB199"/>
+      <c r="NC199"/>
+      <c r="ND199"/>
+      <c r="NE199"/>
+      <c r="NF199"/>
+      <c r="NG199"/>
+      <c r="NH199"/>
+      <c r="NI199"/>
+      <c r="NJ199"/>
+      <c r="NK199"/>
+      <c r="NL199"/>
+      <c r="NM199"/>
+      <c r="NN199"/>
+      <c r="NO199"/>
+      <c r="NP199"/>
+      <c r="NQ199"/>
+      <c r="NR199"/>
+      <c r="NS199"/>
+      <c r="NT199"/>
+      <c r="NU199"/>
+      <c r="NV199"/>
+      <c r="NW199"/>
+      <c r="NX199"/>
+      <c r="NY199"/>
+      <c r="NZ199"/>
+      <c r="OA199"/>
+      <c r="OB199"/>
+      <c r="OC199"/>
+      <c r="OD199"/>
+      <c r="OE199"/>
+      <c r="OF199"/>
+      <c r="OG199"/>
+      <c r="OH199"/>
+      <c r="OI199"/>
+      <c r="OJ199"/>
+      <c r="OK199"/>
+      <c r="OL199"/>
+      <c r="OM199"/>
+      <c r="ON199"/>
+      <c r="OO199"/>
+      <c r="OP199"/>
+      <c r="OQ199"/>
+      <c r="OR199"/>
+      <c r="OS199"/>
+      <c r="OT199"/>
+      <c r="OU199"/>
+      <c r="OV199"/>
+      <c r="OW199"/>
+      <c r="OX199"/>
+      <c r="OY199"/>
+      <c r="OZ199"/>
+      <c r="PA199"/>
+      <c r="PB199"/>
+      <c r="PC199"/>
+      <c r="PD199"/>
+      <c r="PE199"/>
+      <c r="PF199"/>
+      <c r="PG199"/>
+      <c r="PH199"/>
+      <c r="PI199"/>
+      <c r="PJ199"/>
+      <c r="PK199"/>
+      <c r="PL199"/>
+      <c r="PM199"/>
+      <c r="PN199"/>
+      <c r="PO199"/>
+      <c r="PP199"/>
+      <c r="PQ199"/>
+      <c r="PR199"/>
+      <c r="PS199"/>
+      <c r="PT199"/>
+      <c r="PU199"/>
+      <c r="PV199"/>
+      <c r="PW199"/>
+      <c r="PX199"/>
+      <c r="PY199"/>
+      <c r="PZ199"/>
+      <c r="QA199"/>
+      <c r="QB199"/>
+      <c r="QC199"/>
+      <c r="QD199"/>
+      <c r="QE199"/>
+      <c r="QF199"/>
+      <c r="QG199"/>
+      <c r="QH199"/>
+      <c r="QI199"/>
+      <c r="QJ199"/>
+      <c r="QK199"/>
+      <c r="QL199"/>
+      <c r="QM199"/>
+      <c r="QN199"/>
+      <c r="QO199"/>
+      <c r="QP199"/>
+      <c r="QQ199"/>
+      <c r="QR199"/>
+      <c r="QS199"/>
+      <c r="QT199"/>
+      <c r="QU199"/>
+      <c r="QV199"/>
+      <c r="QW199"/>
+      <c r="QX199"/>
+      <c r="QY199"/>
+      <c r="QZ199"/>
+      <c r="RA199"/>
+      <c r="RB199"/>
+      <c r="RC199"/>
+      <c r="RD199"/>
+      <c r="RE199"/>
+      <c r="RF199"/>
+      <c r="RG199"/>
+      <c r="RH199"/>
+      <c r="RI199"/>
+      <c r="RJ199"/>
+      <c r="RK199"/>
+      <c r="RL199"/>
+      <c r="RM199"/>
+      <c r="RN199"/>
+      <c r="RO199"/>
+      <c r="RP199"/>
+      <c r="RQ199"/>
+      <c r="RR199"/>
+      <c r="RS199"/>
+      <c r="RT199"/>
+      <c r="RU199"/>
+      <c r="RV199"/>
+      <c r="RW199"/>
+      <c r="RX199"/>
+      <c r="RY199"/>
+      <c r="RZ199"/>
+      <c r="SA199"/>
+      <c r="SB199"/>
+      <c r="SC199"/>
+      <c r="SD199"/>
+      <c r="SE199"/>
+      <c r="SF199"/>
+      <c r="SG199"/>
+      <c r="SH199"/>
+      <c r="SI199"/>
+      <c r="SJ199"/>
+      <c r="SK199"/>
+      <c r="SL199"/>
+      <c r="SM199"/>
+      <c r="SN199"/>
+      <c r="SO199"/>
+      <c r="SP199"/>
+      <c r="SQ199"/>
+      <c r="SR199"/>
+      <c r="SS199"/>
+      <c r="ST199"/>
+      <c r="SU199"/>
+      <c r="SV199"/>
+      <c r="SW199"/>
+      <c r="SX199"/>
+      <c r="SY199"/>
+      <c r="SZ199"/>
+      <c r="TA199"/>
+      <c r="TB199"/>
+      <c r="TC199"/>
+      <c r="TD199"/>
+      <c r="TE199"/>
+      <c r="TF199"/>
+      <c r="TG199"/>
+      <c r="TH199"/>
+      <c r="TI199"/>
+      <c r="TJ199"/>
+      <c r="TK199"/>
+      <c r="TL199"/>
+      <c r="TM199"/>
+      <c r="TN199"/>
+      <c r="TO199"/>
+      <c r="TP199"/>
+      <c r="TQ199"/>
+      <c r="TR199"/>
+      <c r="TS199"/>
+      <c r="TT199"/>
+      <c r="TU199"/>
+      <c r="TV199"/>
+      <c r="TW199"/>
+      <c r="TX199"/>
+      <c r="TY199"/>
+      <c r="TZ199"/>
+      <c r="UA199"/>
+      <c r="UB199"/>
+      <c r="UC199"/>
+      <c r="UD199"/>
+      <c r="UE199"/>
+      <c r="UF199"/>
+      <c r="UG199"/>
+      <c r="UH199"/>
+      <c r="UI199"/>
+      <c r="UJ199"/>
+      <c r="UK199"/>
+      <c r="UL199"/>
+      <c r="UM199"/>
+      <c r="UN199"/>
+      <c r="UO199"/>
+      <c r="UP199"/>
+      <c r="UQ199"/>
+      <c r="UR199"/>
+      <c r="US199"/>
+      <c r="UT199"/>
+      <c r="UU199"/>
+      <c r="UV199"/>
+      <c r="UW199"/>
+      <c r="UX199"/>
+      <c r="UY199"/>
+      <c r="UZ199"/>
+      <c r="VA199"/>
+      <c r="VB199"/>
+      <c r="VC199"/>
+      <c r="VD199"/>
+      <c r="VE199"/>
+      <c r="VF199"/>
+      <c r="VG199"/>
+      <c r="VH199"/>
+      <c r="VI199"/>
+      <c r="VJ199"/>
+      <c r="VK199"/>
+      <c r="VL199"/>
+      <c r="VM199"/>
+      <c r="VN199"/>
+      <c r="VO199"/>
+      <c r="VP199"/>
+      <c r="VQ199"/>
+      <c r="VR199"/>
+      <c r="VS199"/>
+      <c r="VT199"/>
+      <c r="VU199"/>
+      <c r="VV199"/>
+      <c r="VW199"/>
+      <c r="VX199"/>
+      <c r="VY199"/>
+      <c r="VZ199"/>
+      <c r="WA199"/>
+      <c r="WB199"/>
+      <c r="WC199"/>
+      <c r="WD199"/>
+      <c r="WE199"/>
+      <c r="WF199"/>
+      <c r="WG199"/>
+      <c r="WH199"/>
+      <c r="WI199"/>
+      <c r="WJ199"/>
+      <c r="WK199"/>
+      <c r="WL199"/>
+      <c r="WM199"/>
+      <c r="WN199"/>
+      <c r="WO199"/>
+      <c r="WP199"/>
+      <c r="WQ199"/>
+      <c r="WR199"/>
+      <c r="WS199"/>
+      <c r="WT199"/>
+      <c r="WU199"/>
+      <c r="WV199"/>
+      <c r="WW199"/>
+      <c r="WX199"/>
+      <c r="WY199"/>
+      <c r="WZ199"/>
+      <c r="XA199"/>
+      <c r="XB199"/>
+      <c r="XC199"/>
+      <c r="XD199"/>
+      <c r="XE199"/>
+      <c r="XF199"/>
+      <c r="XG199"/>
+      <c r="XH199"/>
+      <c r="XI199"/>
+      <c r="XJ199"/>
+      <c r="XK199"/>
+      <c r="XL199"/>
+      <c r="XM199"/>
+      <c r="XN199"/>
+      <c r="XO199"/>
+      <c r="XP199"/>
+      <c r="XQ199"/>
+      <c r="XR199"/>
+      <c r="XS199"/>
+      <c r="XT199"/>
+      <c r="XU199"/>
+      <c r="XV199"/>
+      <c r="XW199"/>
+      <c r="XX199"/>
+      <c r="XY199"/>
+      <c r="XZ199"/>
+      <c r="YA199"/>
+      <c r="YB199"/>
+      <c r="YC199"/>
+      <c r="YD199"/>
+      <c r="YE199"/>
+      <c r="YF199"/>
+      <c r="YG199"/>
+      <c r="YH199"/>
+      <c r="YI199"/>
+      <c r="YJ199"/>
+      <c r="YK199"/>
+      <c r="YL199"/>
+      <c r="YM199"/>
+      <c r="YN199"/>
+      <c r="YO199"/>
+      <c r="YP199"/>
+      <c r="YQ199"/>
+      <c r="YR199"/>
+      <c r="YS199"/>
+      <c r="YT199"/>
+      <c r="YU199"/>
+      <c r="YV199"/>
+      <c r="YW199"/>
+      <c r="YX199"/>
+      <c r="YY199"/>
+      <c r="YZ199"/>
+      <c r="ZA199"/>
+      <c r="ZB199"/>
+      <c r="ZC199"/>
+      <c r="ZD199"/>
+      <c r="ZE199"/>
+      <c r="ZF199"/>
+      <c r="ZG199"/>
+      <c r="ZH199"/>
+      <c r="ZI199"/>
+      <c r="ZJ199"/>
+      <c r="ZK199"/>
+      <c r="ZL199"/>
+      <c r="ZM199"/>
+      <c r="ZN199"/>
+      <c r="ZO199"/>
+      <c r="ZP199"/>
+      <c r="ZQ199"/>
+      <c r="ZR199"/>
+      <c r="ZS199"/>
+      <c r="ZT199"/>
+      <c r="ZU199"/>
+      <c r="ZV199"/>
+      <c r="ZW199"/>
+      <c r="ZX199"/>
+      <c r="ZY199"/>
+      <c r="ZZ199"/>
+      <c r="AAA199"/>
+      <c r="AAB199"/>
+      <c r="AAC199"/>
+      <c r="AAD199"/>
+      <c r="AAE199"/>
+      <c r="AAF199"/>
+      <c r="AAG199"/>
+      <c r="AAH199"/>
+      <c r="AAI199"/>
+      <c r="AAJ199"/>
+      <c r="AAK199"/>
+      <c r="AAL199"/>
+      <c r="AAM199"/>
+      <c r="AAN199"/>
+      <c r="AAO199"/>
+      <c r="AAP199"/>
+      <c r="AAQ199"/>
+      <c r="AAR199"/>
+      <c r="AAS199"/>
+      <c r="AAT199"/>
+      <c r="AAU199"/>
+      <c r="AAV199"/>
+      <c r="AAW199"/>
+      <c r="AAX199"/>
+      <c r="AAY199"/>
+      <c r="AAZ199"/>
+      <c r="ABA199"/>
+      <c r="ABB199"/>
+      <c r="ABC199"/>
+      <c r="ABD199"/>
+      <c r="ABE199"/>
+      <c r="ABF199"/>
+      <c r="ABG199"/>
+      <c r="ABH199"/>
+      <c r="ABI199"/>
+      <c r="ABJ199"/>
+      <c r="ABK199"/>
+      <c r="ABL199"/>
+      <c r="ABM199"/>
+      <c r="ABN199"/>
+      <c r="ABO199"/>
+      <c r="ABP199"/>
+      <c r="ABQ199"/>
+      <c r="ABR199"/>
+      <c r="ABS199"/>
+      <c r="ABT199"/>
+      <c r="ABU199"/>
+      <c r="ABV199"/>
+      <c r="ABW199"/>
+      <c r="ABX199"/>
+      <c r="ABY199"/>
+      <c r="ABZ199"/>
+      <c r="ACA199"/>
+      <c r="ACB199"/>
+      <c r="ACC199"/>
+      <c r="ACD199"/>
+      <c r="ACE199"/>
+      <c r="ACF199"/>
+      <c r="ACG199"/>
+      <c r="ACH199"/>
+      <c r="ACI199"/>
+      <c r="ACJ199"/>
+      <c r="ACK199"/>
+      <c r="ACL199"/>
+      <c r="ACM199"/>
+      <c r="ACN199"/>
+      <c r="ACO199"/>
+      <c r="ACP199"/>
+      <c r="ACQ199"/>
+      <c r="ACR199"/>
+      <c r="ACS199"/>
+      <c r="ACT199"/>
+      <c r="ACU199"/>
+      <c r="ACV199"/>
+      <c r="ACW199"/>
+      <c r="ACX199"/>
+      <c r="ACY199"/>
+      <c r="ACZ199"/>
+      <c r="ADA199"/>
+      <c r="ADB199"/>
+      <c r="ADC199"/>
+      <c r="ADD199"/>
+      <c r="ADE199"/>
+      <c r="ADF199"/>
+      <c r="ADG199"/>
+      <c r="ADH199"/>
+      <c r="ADI199"/>
+      <c r="ADJ199"/>
+      <c r="ADK199"/>
+      <c r="ADL199"/>
+      <c r="ADM199"/>
+      <c r="ADN199"/>
+      <c r="ADO199"/>
+      <c r="ADP199"/>
+      <c r="ADQ199"/>
+      <c r="ADR199"/>
+      <c r="ADS199"/>
+      <c r="ADT199"/>
+      <c r="ADU199"/>
+      <c r="ADV199"/>
+      <c r="ADW199"/>
+      <c r="ADX199"/>
+      <c r="ADY199"/>
+      <c r="ADZ199"/>
+      <c r="AEA199"/>
+      <c r="AEB199"/>
+      <c r="AEC199"/>
+      <c r="AED199"/>
+      <c r="AEE199"/>
+      <c r="AEF199"/>
+      <c r="AEG199"/>
+      <c r="AEH199"/>
+      <c r="AEI199"/>
+      <c r="AEJ199"/>
+      <c r="AEK199"/>
+      <c r="AEL199"/>
+      <c r="AEM199"/>
+      <c r="AEN199"/>
+      <c r="AEO199"/>
+      <c r="AEP199"/>
+      <c r="AEQ199"/>
+      <c r="AER199"/>
+      <c r="AES199"/>
+      <c r="AET199"/>
+      <c r="AEU199"/>
+      <c r="AEV199"/>
+      <c r="AEW199"/>
+      <c r="AEX199"/>
+      <c r="AEY199"/>
+      <c r="AEZ199"/>
+      <c r="AFA199"/>
+      <c r="AFB199"/>
+      <c r="AFC199"/>
+      <c r="AFD199"/>
+      <c r="AFE199"/>
+      <c r="AFF199"/>
+      <c r="AFG199"/>
+      <c r="AFH199"/>
+      <c r="AFI199"/>
+      <c r="AFJ199"/>
+      <c r="AFK199"/>
+      <c r="AFL199"/>
+      <c r="AFM199"/>
+      <c r="AFN199"/>
+      <c r="AFO199"/>
+      <c r="AFP199"/>
+      <c r="AFQ199"/>
+      <c r="AFR199"/>
+      <c r="AFS199"/>
+      <c r="AFT199"/>
+      <c r="AFU199"/>
+      <c r="AFV199"/>
+      <c r="AFW199"/>
+      <c r="AFX199"/>
+      <c r="AFY199"/>
+      <c r="AFZ199"/>
+      <c r="AGA199"/>
+      <c r="AGB199"/>
+      <c r="AGC199"/>
+      <c r="AGD199"/>
+      <c r="AGE199"/>
+      <c r="AGF199"/>
+      <c r="AGG199"/>
+      <c r="AGH199"/>
+      <c r="AGI199"/>
+      <c r="AGJ199"/>
+      <c r="AGK199"/>
+      <c r="AGL199"/>
+      <c r="AGM199"/>
+      <c r="AGN199"/>
+      <c r="AGO199"/>
+      <c r="AGP199"/>
+      <c r="AGQ199"/>
+      <c r="AGR199"/>
+      <c r="AGS199"/>
+      <c r="AGT199"/>
+      <c r="AGU199"/>
+      <c r="AGV199"/>
+      <c r="AGW199"/>
+      <c r="AGX199"/>
+      <c r="AGY199"/>
+      <c r="AGZ199"/>
+      <c r="AHA199"/>
+      <c r="AHB199"/>
+      <c r="AHC199"/>
+      <c r="AHD199"/>
+      <c r="AHE199"/>
+      <c r="AHF199"/>
+      <c r="AHG199"/>
+      <c r="AHH199"/>
+      <c r="AHI199"/>
+      <c r="AHJ199"/>
+      <c r="AHK199"/>
+      <c r="AHL199"/>
+      <c r="AHM199"/>
+      <c r="AHN199"/>
+      <c r="AHO199"/>
+      <c r="AHP199"/>
+      <c r="AHQ199"/>
+      <c r="AHR199"/>
+      <c r="AHS199"/>
+      <c r="AHT199"/>
+      <c r="AHU199"/>
+      <c r="AHV199"/>
+      <c r="AHW199"/>
+      <c r="AHX199"/>
+      <c r="AHY199"/>
+      <c r="AHZ199"/>
+      <c r="AIA199"/>
+      <c r="AIB199"/>
+      <c r="AIC199"/>
+      <c r="AID199"/>
+      <c r="AIE199"/>
+      <c r="AIF199"/>
+      <c r="AIG199"/>
+      <c r="AIH199"/>
+      <c r="AII199"/>
+      <c r="AIJ199"/>
+      <c r="AIK199"/>
+      <c r="AIL199"/>
+      <c r="AIM199"/>
+      <c r="AIN199"/>
+      <c r="AIO199"/>
+      <c r="AIP199"/>
+      <c r="AIQ199"/>
+      <c r="AIR199"/>
+      <c r="AIS199"/>
+      <c r="AIT199"/>
+      <c r="AIU199"/>
+      <c r="AIV199"/>
+      <c r="AIW199"/>
+      <c r="AIX199"/>
+      <c r="AIY199"/>
+      <c r="AIZ199"/>
+      <c r="AJA199"/>
+      <c r="AJB199"/>
+      <c r="AJC199"/>
+      <c r="AJD199"/>
+      <c r="AJE199"/>
+      <c r="AJF199"/>
+      <c r="AJG199"/>
+      <c r="AJH199"/>
+      <c r="AJI199"/>
+      <c r="AJJ199"/>
+      <c r="AJK199"/>
+      <c r="AJL199"/>
+      <c r="AJM199"/>
+      <c r="AJN199"/>
+      <c r="AJO199"/>
+      <c r="AJP199"/>
+      <c r="AJQ199"/>
+      <c r="AJR199"/>
+      <c r="AJS199"/>
+      <c r="AJT199"/>
+      <c r="AJU199"/>
+      <c r="AJV199"/>
+      <c r="AJW199"/>
+      <c r="AJX199"/>
+      <c r="AJY199"/>
+      <c r="AJZ199"/>
+      <c r="AKA199"/>
+      <c r="AKB199"/>
+      <c r="AKC199"/>
+      <c r="AKD199"/>
+      <c r="AKE199"/>
+      <c r="AKF199"/>
+      <c r="AKG199"/>
+      <c r="AKH199"/>
+      <c r="AKI199"/>
+      <c r="AKJ199"/>
+      <c r="AKK199"/>
+      <c r="AKL199"/>
+      <c r="AKM199"/>
+      <c r="AKN199"/>
+      <c r="AKO199"/>
+      <c r="AKP199"/>
+      <c r="AKQ199"/>
+      <c r="AKR199"/>
+      <c r="AKS199"/>
+      <c r="AKT199"/>
+      <c r="AKU199"/>
+      <c r="AKV199"/>
+      <c r="AKW199"/>
+      <c r="AKX199"/>
+      <c r="AKY199"/>
+      <c r="AKZ199"/>
+      <c r="ALA199"/>
+      <c r="ALB199"/>
+      <c r="ALC199"/>
+      <c r="ALD199"/>
+      <c r="ALE199"/>
+      <c r="ALF199"/>
+      <c r="ALG199"/>
+      <c r="ALH199"/>
+      <c r="ALI199"/>
+      <c r="ALJ199"/>
+      <c r="ALK199"/>
+      <c r="ALL199"/>
+      <c r="ALM199"/>
+      <c r="ALN199"/>
+      <c r="ALO199"/>
+      <c r="ALP199"/>
+      <c r="ALQ199"/>
+      <c r="ALR199"/>
+      <c r="ALS199"/>
+      <c r="ALT199"/>
+      <c r="ALU199"/>
+      <c r="ALV199"/>
+      <c r="ALW199"/>
+      <c r="ALX199"/>
+      <c r="ALY199"/>
+      <c r="ALZ199"/>
+      <c r="AMA199"/>
+      <c r="AMB199"/>
+      <c r="AMC199"/>
+      <c r="AMD199"/>
+      <c r="AME199"/>
+      <c r="AMF199"/>
+      <c r="AMG199"/>
+      <c r="AMH199"/>
+    </row>
+    <row r="200" spans="1:1022">
       <c r="A200" s="6" t="s">
         <v>384</v>
       </c>
@@ -11268,7 +12297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:1022">
       <c r="A201" s="6" t="s">
         <v>385</v>
       </c>
@@ -11300,7 +12329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:1022">
       <c r="A202" s="6" t="s">
         <v>386</v>
       </c>
@@ -11332,7 +12361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:1022">
       <c r="A203" s="6" t="s">
         <v>387</v>
       </c>
@@ -11364,7 +12393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:1022">
       <c r="A204" s="6" t="s">
         <v>389</v>
       </c>
@@ -11396,7 +12425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:1022">
       <c r="A205" s="6" t="s">
         <v>391</v>
       </c>
@@ -11428,7 +12457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:1022">
       <c r="A206" s="6" t="s">
         <v>393</v>
       </c>
@@ -11460,7 +12489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:1022">
       <c r="A207" s="6" t="s">
         <v>395</v>
       </c>
@@ -11492,7 +12521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:1022">
       <c r="A208" s="6" t="s">
         <v>397</v>
       </c>
@@ -13060,7 +14089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:1022">
       <c r="A257" s="6" t="s">
         <v>483</v>
       </c>
@@ -13092,7 +14121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:1022">
       <c r="A258" s="6" t="s">
         <v>485</v>
       </c>
@@ -13124,286 +14153,1298 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
-      <c r="A259" s="6" t="s">
+    <row r="259" spans="1:1022">
+      <c r="A259" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B259" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D259" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E259" s="15">
+        <v>5</v>
+      </c>
+      <c r="F259" s="16">
+        <v>3.92</v>
+      </c>
+      <c r="G259" s="15">
+        <v>155</v>
+      </c>
+      <c r="H259" s="15">
+        <v>1956</v>
+      </c>
+      <c r="I259" s="8">
+        <v>42105</v>
+      </c>
+      <c r="J259" t="s">
+        <v>14</v>
+      </c>
+      <c r="K259"/>
+      <c r="L259"/>
+      <c r="M259"/>
+      <c r="N259"/>
+      <c r="O259"/>
+      <c r="P259"/>
+      <c r="Q259"/>
+      <c r="R259"/>
+      <c r="S259"/>
+      <c r="T259"/>
+      <c r="U259"/>
+      <c r="V259"/>
+      <c r="W259"/>
+      <c r="X259"/>
+      <c r="Y259"/>
+      <c r="Z259"/>
+      <c r="AA259"/>
+      <c r="AB259"/>
+      <c r="AC259"/>
+      <c r="AD259"/>
+      <c r="AE259"/>
+      <c r="AF259"/>
+      <c r="AG259"/>
+      <c r="AH259"/>
+      <c r="AI259"/>
+      <c r="AJ259"/>
+      <c r="AK259"/>
+      <c r="AL259"/>
+      <c r="AM259"/>
+      <c r="AN259"/>
+      <c r="AO259"/>
+      <c r="AP259"/>
+      <c r="AQ259"/>
+      <c r="AR259"/>
+      <c r="AS259"/>
+      <c r="AT259"/>
+      <c r="AU259"/>
+      <c r="AV259"/>
+      <c r="AW259"/>
+      <c r="AX259"/>
+      <c r="AY259"/>
+      <c r="AZ259"/>
+      <c r="BA259"/>
+      <c r="BB259"/>
+      <c r="BC259"/>
+      <c r="BD259"/>
+      <c r="BE259"/>
+      <c r="BF259"/>
+      <c r="BG259"/>
+      <c r="BH259"/>
+      <c r="BI259"/>
+      <c r="BJ259"/>
+      <c r="BK259"/>
+      <c r="BL259"/>
+      <c r="BM259"/>
+      <c r="BN259"/>
+      <c r="BO259"/>
+      <c r="BP259"/>
+      <c r="BQ259"/>
+      <c r="BR259"/>
+      <c r="BS259"/>
+      <c r="BT259"/>
+      <c r="BU259"/>
+      <c r="BV259"/>
+      <c r="BW259"/>
+      <c r="BX259"/>
+      <c r="BY259"/>
+      <c r="BZ259"/>
+      <c r="CA259"/>
+      <c r="CB259"/>
+      <c r="CC259"/>
+      <c r="CD259"/>
+      <c r="CE259"/>
+      <c r="CF259"/>
+      <c r="CG259"/>
+      <c r="CH259"/>
+      <c r="CI259"/>
+      <c r="CJ259"/>
+      <c r="CK259"/>
+      <c r="CL259"/>
+      <c r="CM259"/>
+      <c r="CN259"/>
+      <c r="CO259"/>
+      <c r="CP259"/>
+      <c r="CQ259"/>
+      <c r="CR259"/>
+      <c r="CS259"/>
+      <c r="CT259"/>
+      <c r="CU259"/>
+      <c r="CV259"/>
+      <c r="CW259"/>
+      <c r="CX259"/>
+      <c r="CY259"/>
+      <c r="CZ259"/>
+      <c r="DA259"/>
+      <c r="DB259"/>
+      <c r="DC259"/>
+      <c r="DD259"/>
+      <c r="DE259"/>
+      <c r="DF259"/>
+      <c r="DG259"/>
+      <c r="DH259"/>
+      <c r="DI259"/>
+      <c r="DJ259"/>
+      <c r="DK259"/>
+      <c r="DL259"/>
+      <c r="DM259"/>
+      <c r="DN259"/>
+      <c r="DO259"/>
+      <c r="DP259"/>
+      <c r="DQ259"/>
+      <c r="DR259"/>
+      <c r="DS259"/>
+      <c r="DT259"/>
+      <c r="DU259"/>
+      <c r="DV259"/>
+      <c r="DW259"/>
+      <c r="DX259"/>
+      <c r="DY259"/>
+      <c r="DZ259"/>
+      <c r="EA259"/>
+      <c r="EB259"/>
+      <c r="EC259"/>
+      <c r="ED259"/>
+      <c r="EE259"/>
+      <c r="EF259"/>
+      <c r="EG259"/>
+      <c r="EH259"/>
+      <c r="EI259"/>
+      <c r="EJ259"/>
+      <c r="EK259"/>
+      <c r="EL259"/>
+      <c r="EM259"/>
+      <c r="EN259"/>
+      <c r="EO259"/>
+      <c r="EP259"/>
+      <c r="EQ259"/>
+      <c r="ER259"/>
+      <c r="ES259"/>
+      <c r="ET259"/>
+      <c r="EU259"/>
+      <c r="EV259"/>
+      <c r="EW259"/>
+      <c r="EX259"/>
+      <c r="EY259"/>
+      <c r="EZ259"/>
+      <c r="FA259"/>
+      <c r="FB259"/>
+      <c r="FC259"/>
+      <c r="FD259"/>
+      <c r="FE259"/>
+      <c r="FF259"/>
+      <c r="FG259"/>
+      <c r="FH259"/>
+      <c r="FI259"/>
+      <c r="FJ259"/>
+      <c r="FK259"/>
+      <c r="FL259"/>
+      <c r="FM259"/>
+      <c r="FN259"/>
+      <c r="FO259"/>
+      <c r="FP259"/>
+      <c r="FQ259"/>
+      <c r="FR259"/>
+      <c r="FS259"/>
+      <c r="FT259"/>
+      <c r="FU259"/>
+      <c r="FV259"/>
+      <c r="FW259"/>
+      <c r="FX259"/>
+      <c r="FY259"/>
+      <c r="FZ259"/>
+      <c r="GA259"/>
+      <c r="GB259"/>
+      <c r="GC259"/>
+      <c r="GD259"/>
+      <c r="GE259"/>
+      <c r="GF259"/>
+      <c r="GG259"/>
+      <c r="GH259"/>
+      <c r="GI259"/>
+      <c r="GJ259"/>
+      <c r="GK259"/>
+      <c r="GL259"/>
+      <c r="GM259"/>
+      <c r="GN259"/>
+      <c r="GO259"/>
+      <c r="GP259"/>
+      <c r="GQ259"/>
+      <c r="GR259"/>
+      <c r="GS259"/>
+      <c r="GT259"/>
+      <c r="GU259"/>
+      <c r="GV259"/>
+      <c r="GW259"/>
+      <c r="GX259"/>
+      <c r="GY259"/>
+      <c r="GZ259"/>
+      <c r="HA259"/>
+      <c r="HB259"/>
+      <c r="HC259"/>
+      <c r="HD259"/>
+      <c r="HE259"/>
+      <c r="HF259"/>
+      <c r="HG259"/>
+      <c r="HH259"/>
+      <c r="HI259"/>
+      <c r="HJ259"/>
+      <c r="HK259"/>
+      <c r="HL259"/>
+      <c r="HM259"/>
+      <c r="HN259"/>
+      <c r="HO259"/>
+      <c r="HP259"/>
+      <c r="HQ259"/>
+      <c r="HR259"/>
+      <c r="HS259"/>
+      <c r="HT259"/>
+      <c r="HU259"/>
+      <c r="HV259"/>
+      <c r="HW259"/>
+      <c r="HX259"/>
+      <c r="HY259"/>
+      <c r="HZ259"/>
+      <c r="IA259"/>
+      <c r="IB259"/>
+      <c r="IC259"/>
+      <c r="ID259"/>
+      <c r="IE259"/>
+      <c r="IF259"/>
+      <c r="IG259"/>
+      <c r="IH259"/>
+      <c r="II259"/>
+      <c r="IJ259"/>
+      <c r="IK259"/>
+      <c r="IL259"/>
+      <c r="IM259"/>
+      <c r="IN259"/>
+      <c r="IO259"/>
+      <c r="IP259"/>
+      <c r="IQ259"/>
+      <c r="IR259"/>
+      <c r="IS259"/>
+      <c r="IT259"/>
+      <c r="IU259"/>
+      <c r="IV259"/>
+      <c r="IW259"/>
+      <c r="IX259"/>
+      <c r="IY259"/>
+      <c r="IZ259"/>
+      <c r="JA259"/>
+      <c r="JB259"/>
+      <c r="JC259"/>
+      <c r="JD259"/>
+      <c r="JE259"/>
+      <c r="JF259"/>
+      <c r="JG259"/>
+      <c r="JH259"/>
+      <c r="JI259"/>
+      <c r="JJ259"/>
+      <c r="JK259"/>
+      <c r="JL259"/>
+      <c r="JM259"/>
+      <c r="JN259"/>
+      <c r="JO259"/>
+      <c r="JP259"/>
+      <c r="JQ259"/>
+      <c r="JR259"/>
+      <c r="JS259"/>
+      <c r="JT259"/>
+      <c r="JU259"/>
+      <c r="JV259"/>
+      <c r="JW259"/>
+      <c r="JX259"/>
+      <c r="JY259"/>
+      <c r="JZ259"/>
+      <c r="KA259"/>
+      <c r="KB259"/>
+      <c r="KC259"/>
+      <c r="KD259"/>
+      <c r="KE259"/>
+      <c r="KF259"/>
+      <c r="KG259"/>
+      <c r="KH259"/>
+      <c r="KI259"/>
+      <c r="KJ259"/>
+      <c r="KK259"/>
+      <c r="KL259"/>
+      <c r="KM259"/>
+      <c r="KN259"/>
+      <c r="KO259"/>
+      <c r="KP259"/>
+      <c r="KQ259"/>
+      <c r="KR259"/>
+      <c r="KS259"/>
+      <c r="KT259"/>
+      <c r="KU259"/>
+      <c r="KV259"/>
+      <c r="KW259"/>
+      <c r="KX259"/>
+      <c r="KY259"/>
+      <c r="KZ259"/>
+      <c r="LA259"/>
+      <c r="LB259"/>
+      <c r="LC259"/>
+      <c r="LD259"/>
+      <c r="LE259"/>
+      <c r="LF259"/>
+      <c r="LG259"/>
+      <c r="LH259"/>
+      <c r="LI259"/>
+      <c r="LJ259"/>
+      <c r="LK259"/>
+      <c r="LL259"/>
+      <c r="LM259"/>
+      <c r="LN259"/>
+      <c r="LO259"/>
+      <c r="LP259"/>
+      <c r="LQ259"/>
+      <c r="LR259"/>
+      <c r="LS259"/>
+      <c r="LT259"/>
+      <c r="LU259"/>
+      <c r="LV259"/>
+      <c r="LW259"/>
+      <c r="LX259"/>
+      <c r="LY259"/>
+      <c r="LZ259"/>
+      <c r="MA259"/>
+      <c r="MB259"/>
+      <c r="MC259"/>
+      <c r="MD259"/>
+      <c r="ME259"/>
+      <c r="MF259"/>
+      <c r="MG259"/>
+      <c r="MH259"/>
+      <c r="MI259"/>
+      <c r="MJ259"/>
+      <c r="MK259"/>
+      <c r="ML259"/>
+      <c r="MM259"/>
+      <c r="MN259"/>
+      <c r="MO259"/>
+      <c r="MP259"/>
+      <c r="MQ259"/>
+      <c r="MR259"/>
+      <c r="MS259"/>
+      <c r="MT259"/>
+      <c r="MU259"/>
+      <c r="MV259"/>
+      <c r="MW259"/>
+      <c r="MX259"/>
+      <c r="MY259"/>
+      <c r="MZ259"/>
+      <c r="NA259"/>
+      <c r="NB259"/>
+      <c r="NC259"/>
+      <c r="ND259"/>
+      <c r="NE259"/>
+      <c r="NF259"/>
+      <c r="NG259"/>
+      <c r="NH259"/>
+      <c r="NI259"/>
+      <c r="NJ259"/>
+      <c r="NK259"/>
+      <c r="NL259"/>
+      <c r="NM259"/>
+      <c r="NN259"/>
+      <c r="NO259"/>
+      <c r="NP259"/>
+      <c r="NQ259"/>
+      <c r="NR259"/>
+      <c r="NS259"/>
+      <c r="NT259"/>
+      <c r="NU259"/>
+      <c r="NV259"/>
+      <c r="NW259"/>
+      <c r="NX259"/>
+      <c r="NY259"/>
+      <c r="NZ259"/>
+      <c r="OA259"/>
+      <c r="OB259"/>
+      <c r="OC259"/>
+      <c r="OD259"/>
+      <c r="OE259"/>
+      <c r="OF259"/>
+      <c r="OG259"/>
+      <c r="OH259"/>
+      <c r="OI259"/>
+      <c r="OJ259"/>
+      <c r="OK259"/>
+      <c r="OL259"/>
+      <c r="OM259"/>
+      <c r="ON259"/>
+      <c r="OO259"/>
+      <c r="OP259"/>
+      <c r="OQ259"/>
+      <c r="OR259"/>
+      <c r="OS259"/>
+      <c r="OT259"/>
+      <c r="OU259"/>
+      <c r="OV259"/>
+      <c r="OW259"/>
+      <c r="OX259"/>
+      <c r="OY259"/>
+      <c r="OZ259"/>
+      <c r="PA259"/>
+      <c r="PB259"/>
+      <c r="PC259"/>
+      <c r="PD259"/>
+      <c r="PE259"/>
+      <c r="PF259"/>
+      <c r="PG259"/>
+      <c r="PH259"/>
+      <c r="PI259"/>
+      <c r="PJ259"/>
+      <c r="PK259"/>
+      <c r="PL259"/>
+      <c r="PM259"/>
+      <c r="PN259"/>
+      <c r="PO259"/>
+      <c r="PP259"/>
+      <c r="PQ259"/>
+      <c r="PR259"/>
+      <c r="PS259"/>
+      <c r="PT259"/>
+      <c r="PU259"/>
+      <c r="PV259"/>
+      <c r="PW259"/>
+      <c r="PX259"/>
+      <c r="PY259"/>
+      <c r="PZ259"/>
+      <c r="QA259"/>
+      <c r="QB259"/>
+      <c r="QC259"/>
+      <c r="QD259"/>
+      <c r="QE259"/>
+      <c r="QF259"/>
+      <c r="QG259"/>
+      <c r="QH259"/>
+      <c r="QI259"/>
+      <c r="QJ259"/>
+      <c r="QK259"/>
+      <c r="QL259"/>
+      <c r="QM259"/>
+      <c r="QN259"/>
+      <c r="QO259"/>
+      <c r="QP259"/>
+      <c r="QQ259"/>
+      <c r="QR259"/>
+      <c r="QS259"/>
+      <c r="QT259"/>
+      <c r="QU259"/>
+      <c r="QV259"/>
+      <c r="QW259"/>
+      <c r="QX259"/>
+      <c r="QY259"/>
+      <c r="QZ259"/>
+      <c r="RA259"/>
+      <c r="RB259"/>
+      <c r="RC259"/>
+      <c r="RD259"/>
+      <c r="RE259"/>
+      <c r="RF259"/>
+      <c r="RG259"/>
+      <c r="RH259"/>
+      <c r="RI259"/>
+      <c r="RJ259"/>
+      <c r="RK259"/>
+      <c r="RL259"/>
+      <c r="RM259"/>
+      <c r="RN259"/>
+      <c r="RO259"/>
+      <c r="RP259"/>
+      <c r="RQ259"/>
+      <c r="RR259"/>
+      <c r="RS259"/>
+      <c r="RT259"/>
+      <c r="RU259"/>
+      <c r="RV259"/>
+      <c r="RW259"/>
+      <c r="RX259"/>
+      <c r="RY259"/>
+      <c r="RZ259"/>
+      <c r="SA259"/>
+      <c r="SB259"/>
+      <c r="SC259"/>
+      <c r="SD259"/>
+      <c r="SE259"/>
+      <c r="SF259"/>
+      <c r="SG259"/>
+      <c r="SH259"/>
+      <c r="SI259"/>
+      <c r="SJ259"/>
+      <c r="SK259"/>
+      <c r="SL259"/>
+      <c r="SM259"/>
+      <c r="SN259"/>
+      <c r="SO259"/>
+      <c r="SP259"/>
+      <c r="SQ259"/>
+      <c r="SR259"/>
+      <c r="SS259"/>
+      <c r="ST259"/>
+      <c r="SU259"/>
+      <c r="SV259"/>
+      <c r="SW259"/>
+      <c r="SX259"/>
+      <c r="SY259"/>
+      <c r="SZ259"/>
+      <c r="TA259"/>
+      <c r="TB259"/>
+      <c r="TC259"/>
+      <c r="TD259"/>
+      <c r="TE259"/>
+      <c r="TF259"/>
+      <c r="TG259"/>
+      <c r="TH259"/>
+      <c r="TI259"/>
+      <c r="TJ259"/>
+      <c r="TK259"/>
+      <c r="TL259"/>
+      <c r="TM259"/>
+      <c r="TN259"/>
+      <c r="TO259"/>
+      <c r="TP259"/>
+      <c r="TQ259"/>
+      <c r="TR259"/>
+      <c r="TS259"/>
+      <c r="TT259"/>
+      <c r="TU259"/>
+      <c r="TV259"/>
+      <c r="TW259"/>
+      <c r="TX259"/>
+      <c r="TY259"/>
+      <c r="TZ259"/>
+      <c r="UA259"/>
+      <c r="UB259"/>
+      <c r="UC259"/>
+      <c r="UD259"/>
+      <c r="UE259"/>
+      <c r="UF259"/>
+      <c r="UG259"/>
+      <c r="UH259"/>
+      <c r="UI259"/>
+      <c r="UJ259"/>
+      <c r="UK259"/>
+      <c r="UL259"/>
+      <c r="UM259"/>
+      <c r="UN259"/>
+      <c r="UO259"/>
+      <c r="UP259"/>
+      <c r="UQ259"/>
+      <c r="UR259"/>
+      <c r="US259"/>
+      <c r="UT259"/>
+      <c r="UU259"/>
+      <c r="UV259"/>
+      <c r="UW259"/>
+      <c r="UX259"/>
+      <c r="UY259"/>
+      <c r="UZ259"/>
+      <c r="VA259"/>
+      <c r="VB259"/>
+      <c r="VC259"/>
+      <c r="VD259"/>
+      <c r="VE259"/>
+      <c r="VF259"/>
+      <c r="VG259"/>
+      <c r="VH259"/>
+      <c r="VI259"/>
+      <c r="VJ259"/>
+      <c r="VK259"/>
+      <c r="VL259"/>
+      <c r="VM259"/>
+      <c r="VN259"/>
+      <c r="VO259"/>
+      <c r="VP259"/>
+      <c r="VQ259"/>
+      <c r="VR259"/>
+      <c r="VS259"/>
+      <c r="VT259"/>
+      <c r="VU259"/>
+      <c r="VV259"/>
+      <c r="VW259"/>
+      <c r="VX259"/>
+      <c r="VY259"/>
+      <c r="VZ259"/>
+      <c r="WA259"/>
+      <c r="WB259"/>
+      <c r="WC259"/>
+      <c r="WD259"/>
+      <c r="WE259"/>
+      <c r="WF259"/>
+      <c r="WG259"/>
+      <c r="WH259"/>
+      <c r="WI259"/>
+      <c r="WJ259"/>
+      <c r="WK259"/>
+      <c r="WL259"/>
+      <c r="WM259"/>
+      <c r="WN259"/>
+      <c r="WO259"/>
+      <c r="WP259"/>
+      <c r="WQ259"/>
+      <c r="WR259"/>
+      <c r="WS259"/>
+      <c r="WT259"/>
+      <c r="WU259"/>
+      <c r="WV259"/>
+      <c r="WW259"/>
+      <c r="WX259"/>
+      <c r="WY259"/>
+      <c r="WZ259"/>
+      <c r="XA259"/>
+      <c r="XB259"/>
+      <c r="XC259"/>
+      <c r="XD259"/>
+      <c r="XE259"/>
+      <c r="XF259"/>
+      <c r="XG259"/>
+      <c r="XH259"/>
+      <c r="XI259"/>
+      <c r="XJ259"/>
+      <c r="XK259"/>
+      <c r="XL259"/>
+      <c r="XM259"/>
+      <c r="XN259"/>
+      <c r="XO259"/>
+      <c r="XP259"/>
+      <c r="XQ259"/>
+      <c r="XR259"/>
+      <c r="XS259"/>
+      <c r="XT259"/>
+      <c r="XU259"/>
+      <c r="XV259"/>
+      <c r="XW259"/>
+      <c r="XX259"/>
+      <c r="XY259"/>
+      <c r="XZ259"/>
+      <c r="YA259"/>
+      <c r="YB259"/>
+      <c r="YC259"/>
+      <c r="YD259"/>
+      <c r="YE259"/>
+      <c r="YF259"/>
+      <c r="YG259"/>
+      <c r="YH259"/>
+      <c r="YI259"/>
+      <c r="YJ259"/>
+      <c r="YK259"/>
+      <c r="YL259"/>
+      <c r="YM259"/>
+      <c r="YN259"/>
+      <c r="YO259"/>
+      <c r="YP259"/>
+      <c r="YQ259"/>
+      <c r="YR259"/>
+      <c r="YS259"/>
+      <c r="YT259"/>
+      <c r="YU259"/>
+      <c r="YV259"/>
+      <c r="YW259"/>
+      <c r="YX259"/>
+      <c r="YY259"/>
+      <c r="YZ259"/>
+      <c r="ZA259"/>
+      <c r="ZB259"/>
+      <c r="ZC259"/>
+      <c r="ZD259"/>
+      <c r="ZE259"/>
+      <c r="ZF259"/>
+      <c r="ZG259"/>
+      <c r="ZH259"/>
+      <c r="ZI259"/>
+      <c r="ZJ259"/>
+      <c r="ZK259"/>
+      <c r="ZL259"/>
+      <c r="ZM259"/>
+      <c r="ZN259"/>
+      <c r="ZO259"/>
+      <c r="ZP259"/>
+      <c r="ZQ259"/>
+      <c r="ZR259"/>
+      <c r="ZS259"/>
+      <c r="ZT259"/>
+      <c r="ZU259"/>
+      <c r="ZV259"/>
+      <c r="ZW259"/>
+      <c r="ZX259"/>
+      <c r="ZY259"/>
+      <c r="ZZ259"/>
+      <c r="AAA259"/>
+      <c r="AAB259"/>
+      <c r="AAC259"/>
+      <c r="AAD259"/>
+      <c r="AAE259"/>
+      <c r="AAF259"/>
+      <c r="AAG259"/>
+      <c r="AAH259"/>
+      <c r="AAI259"/>
+      <c r="AAJ259"/>
+      <c r="AAK259"/>
+      <c r="AAL259"/>
+      <c r="AAM259"/>
+      <c r="AAN259"/>
+      <c r="AAO259"/>
+      <c r="AAP259"/>
+      <c r="AAQ259"/>
+      <c r="AAR259"/>
+      <c r="AAS259"/>
+      <c r="AAT259"/>
+      <c r="AAU259"/>
+      <c r="AAV259"/>
+      <c r="AAW259"/>
+      <c r="AAX259"/>
+      <c r="AAY259"/>
+      <c r="AAZ259"/>
+      <c r="ABA259"/>
+      <c r="ABB259"/>
+      <c r="ABC259"/>
+      <c r="ABD259"/>
+      <c r="ABE259"/>
+      <c r="ABF259"/>
+      <c r="ABG259"/>
+      <c r="ABH259"/>
+      <c r="ABI259"/>
+      <c r="ABJ259"/>
+      <c r="ABK259"/>
+      <c r="ABL259"/>
+      <c r="ABM259"/>
+      <c r="ABN259"/>
+      <c r="ABO259"/>
+      <c r="ABP259"/>
+      <c r="ABQ259"/>
+      <c r="ABR259"/>
+      <c r="ABS259"/>
+      <c r="ABT259"/>
+      <c r="ABU259"/>
+      <c r="ABV259"/>
+      <c r="ABW259"/>
+      <c r="ABX259"/>
+      <c r="ABY259"/>
+      <c r="ABZ259"/>
+      <c r="ACA259"/>
+      <c r="ACB259"/>
+      <c r="ACC259"/>
+      <c r="ACD259"/>
+      <c r="ACE259"/>
+      <c r="ACF259"/>
+      <c r="ACG259"/>
+      <c r="ACH259"/>
+      <c r="ACI259"/>
+      <c r="ACJ259"/>
+      <c r="ACK259"/>
+      <c r="ACL259"/>
+      <c r="ACM259"/>
+      <c r="ACN259"/>
+      <c r="ACO259"/>
+      <c r="ACP259"/>
+      <c r="ACQ259"/>
+      <c r="ACR259"/>
+      <c r="ACS259"/>
+      <c r="ACT259"/>
+      <c r="ACU259"/>
+      <c r="ACV259"/>
+      <c r="ACW259"/>
+      <c r="ACX259"/>
+      <c r="ACY259"/>
+      <c r="ACZ259"/>
+      <c r="ADA259"/>
+      <c r="ADB259"/>
+      <c r="ADC259"/>
+      <c r="ADD259"/>
+      <c r="ADE259"/>
+      <c r="ADF259"/>
+      <c r="ADG259"/>
+      <c r="ADH259"/>
+      <c r="ADI259"/>
+      <c r="ADJ259"/>
+      <c r="ADK259"/>
+      <c r="ADL259"/>
+      <c r="ADM259"/>
+      <c r="ADN259"/>
+      <c r="ADO259"/>
+      <c r="ADP259"/>
+      <c r="ADQ259"/>
+      <c r="ADR259"/>
+      <c r="ADS259"/>
+      <c r="ADT259"/>
+      <c r="ADU259"/>
+      <c r="ADV259"/>
+      <c r="ADW259"/>
+      <c r="ADX259"/>
+      <c r="ADY259"/>
+      <c r="ADZ259"/>
+      <c r="AEA259"/>
+      <c r="AEB259"/>
+      <c r="AEC259"/>
+      <c r="AED259"/>
+      <c r="AEE259"/>
+      <c r="AEF259"/>
+      <c r="AEG259"/>
+      <c r="AEH259"/>
+      <c r="AEI259"/>
+      <c r="AEJ259"/>
+      <c r="AEK259"/>
+      <c r="AEL259"/>
+      <c r="AEM259"/>
+      <c r="AEN259"/>
+      <c r="AEO259"/>
+      <c r="AEP259"/>
+      <c r="AEQ259"/>
+      <c r="AER259"/>
+      <c r="AES259"/>
+      <c r="AET259"/>
+      <c r="AEU259"/>
+      <c r="AEV259"/>
+      <c r="AEW259"/>
+      <c r="AEX259"/>
+      <c r="AEY259"/>
+      <c r="AEZ259"/>
+      <c r="AFA259"/>
+      <c r="AFB259"/>
+      <c r="AFC259"/>
+      <c r="AFD259"/>
+      <c r="AFE259"/>
+      <c r="AFF259"/>
+      <c r="AFG259"/>
+      <c r="AFH259"/>
+      <c r="AFI259"/>
+      <c r="AFJ259"/>
+      <c r="AFK259"/>
+      <c r="AFL259"/>
+      <c r="AFM259"/>
+      <c r="AFN259"/>
+      <c r="AFO259"/>
+      <c r="AFP259"/>
+      <c r="AFQ259"/>
+      <c r="AFR259"/>
+      <c r="AFS259"/>
+      <c r="AFT259"/>
+      <c r="AFU259"/>
+      <c r="AFV259"/>
+      <c r="AFW259"/>
+      <c r="AFX259"/>
+      <c r="AFY259"/>
+      <c r="AFZ259"/>
+      <c r="AGA259"/>
+      <c r="AGB259"/>
+      <c r="AGC259"/>
+      <c r="AGD259"/>
+      <c r="AGE259"/>
+      <c r="AGF259"/>
+      <c r="AGG259"/>
+      <c r="AGH259"/>
+      <c r="AGI259"/>
+      <c r="AGJ259"/>
+      <c r="AGK259"/>
+      <c r="AGL259"/>
+      <c r="AGM259"/>
+      <c r="AGN259"/>
+      <c r="AGO259"/>
+      <c r="AGP259"/>
+      <c r="AGQ259"/>
+      <c r="AGR259"/>
+      <c r="AGS259"/>
+      <c r="AGT259"/>
+      <c r="AGU259"/>
+      <c r="AGV259"/>
+      <c r="AGW259"/>
+      <c r="AGX259"/>
+      <c r="AGY259"/>
+      <c r="AGZ259"/>
+      <c r="AHA259"/>
+      <c r="AHB259"/>
+      <c r="AHC259"/>
+      <c r="AHD259"/>
+      <c r="AHE259"/>
+      <c r="AHF259"/>
+      <c r="AHG259"/>
+      <c r="AHH259"/>
+      <c r="AHI259"/>
+      <c r="AHJ259"/>
+      <c r="AHK259"/>
+      <c r="AHL259"/>
+      <c r="AHM259"/>
+      <c r="AHN259"/>
+      <c r="AHO259"/>
+      <c r="AHP259"/>
+      <c r="AHQ259"/>
+      <c r="AHR259"/>
+      <c r="AHS259"/>
+      <c r="AHT259"/>
+      <c r="AHU259"/>
+      <c r="AHV259"/>
+      <c r="AHW259"/>
+      <c r="AHX259"/>
+      <c r="AHY259"/>
+      <c r="AHZ259"/>
+      <c r="AIA259"/>
+      <c r="AIB259"/>
+      <c r="AIC259"/>
+      <c r="AID259"/>
+      <c r="AIE259"/>
+      <c r="AIF259"/>
+      <c r="AIG259"/>
+      <c r="AIH259"/>
+      <c r="AII259"/>
+      <c r="AIJ259"/>
+      <c r="AIK259"/>
+      <c r="AIL259"/>
+      <c r="AIM259"/>
+      <c r="AIN259"/>
+      <c r="AIO259"/>
+      <c r="AIP259"/>
+      <c r="AIQ259"/>
+      <c r="AIR259"/>
+      <c r="AIS259"/>
+      <c r="AIT259"/>
+      <c r="AIU259"/>
+      <c r="AIV259"/>
+      <c r="AIW259"/>
+      <c r="AIX259"/>
+      <c r="AIY259"/>
+      <c r="AIZ259"/>
+      <c r="AJA259"/>
+      <c r="AJB259"/>
+      <c r="AJC259"/>
+      <c r="AJD259"/>
+      <c r="AJE259"/>
+      <c r="AJF259"/>
+      <c r="AJG259"/>
+      <c r="AJH259"/>
+      <c r="AJI259"/>
+      <c r="AJJ259"/>
+      <c r="AJK259"/>
+      <c r="AJL259"/>
+      <c r="AJM259"/>
+      <c r="AJN259"/>
+      <c r="AJO259"/>
+      <c r="AJP259"/>
+      <c r="AJQ259"/>
+      <c r="AJR259"/>
+      <c r="AJS259"/>
+      <c r="AJT259"/>
+      <c r="AJU259"/>
+      <c r="AJV259"/>
+      <c r="AJW259"/>
+      <c r="AJX259"/>
+      <c r="AJY259"/>
+      <c r="AJZ259"/>
+      <c r="AKA259"/>
+      <c r="AKB259"/>
+      <c r="AKC259"/>
+      <c r="AKD259"/>
+      <c r="AKE259"/>
+      <c r="AKF259"/>
+      <c r="AKG259"/>
+      <c r="AKH259"/>
+      <c r="AKI259"/>
+      <c r="AKJ259"/>
+      <c r="AKK259"/>
+      <c r="AKL259"/>
+      <c r="AKM259"/>
+      <c r="AKN259"/>
+      <c r="AKO259"/>
+      <c r="AKP259"/>
+      <c r="AKQ259"/>
+      <c r="AKR259"/>
+      <c r="AKS259"/>
+      <c r="AKT259"/>
+      <c r="AKU259"/>
+      <c r="AKV259"/>
+      <c r="AKW259"/>
+      <c r="AKX259"/>
+      <c r="AKY259"/>
+      <c r="AKZ259"/>
+      <c r="ALA259"/>
+      <c r="ALB259"/>
+      <c r="ALC259"/>
+      <c r="ALD259"/>
+      <c r="ALE259"/>
+      <c r="ALF259"/>
+      <c r="ALG259"/>
+      <c r="ALH259"/>
+      <c r="ALI259"/>
+      <c r="ALJ259"/>
+      <c r="ALK259"/>
+      <c r="ALL259"/>
+      <c r="ALM259"/>
+      <c r="ALN259"/>
+      <c r="ALO259"/>
+      <c r="ALP259"/>
+      <c r="ALQ259"/>
+      <c r="ALR259"/>
+      <c r="ALS259"/>
+      <c r="ALT259"/>
+      <c r="ALU259"/>
+      <c r="ALV259"/>
+      <c r="ALW259"/>
+      <c r="ALX259"/>
+      <c r="ALY259"/>
+      <c r="ALZ259"/>
+      <c r="AMA259"/>
+      <c r="AMB259"/>
+      <c r="AMC259"/>
+      <c r="AMD259"/>
+      <c r="AME259"/>
+      <c r="AMF259"/>
+      <c r="AMG259"/>
+      <c r="AMH259"/>
+    </row>
+    <row r="260" spans="1:1022">
+      <c r="A260" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B260" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C259" s="6" t="s">
+      <c r="C260" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="D259" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E259" s="6">
-        <v>5</v>
-      </c>
-      <c r="F259" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="G259" s="6">
-        <v>128</v>
-      </c>
-      <c r="H259" s="6">
-        <v>-410</v>
-      </c>
-      <c r="I259" s="8">
-        <v>42104</v>
-      </c>
-      <c r="J259" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
-      <c r="A260" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E260" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F260" s="7">
-        <v>4.1900000000000004</v>
+        <v>3.81</v>
       </c>
       <c r="G260" s="6">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="H260" s="6">
-        <v>2013</v>
+        <v>-410</v>
       </c>
       <c r="I260" s="8">
-        <v>42106</v>
+        <v>42104</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:1022">
       <c r="A261" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E261" s="6">
         <v>4</v>
       </c>
       <c r="F261" s="7">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="G261" s="6">
+        <v>282</v>
+      </c>
+      <c r="H261" s="6">
+        <v>2013</v>
+      </c>
+      <c r="I261" s="8">
+        <v>42106</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1022">
+      <c r="A262" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E262" s="6">
+        <v>4</v>
+      </c>
+      <c r="F262" s="7">
         <v>4.12</v>
       </c>
-      <c r="G261" s="6">
+      <c r="G262" s="6">
         <v>579</v>
       </c>
-      <c r="H261" s="6">
+      <c r="H262" s="6">
         <v>1980</v>
       </c>
-      <c r="I261" s="8">
+      <c r="I262" s="8">
         <v>42115</v>
       </c>
-      <c r="J261" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
-      <c r="A262" s="6" t="s">
+      <c r="J262" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1022">
+      <c r="A263" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B263" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C262" s="6" t="s">
+      <c r="C263" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D262" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E262" s="6">
+      <c r="D263" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E263" s="6">
         <v>3</v>
       </c>
-      <c r="F262" s="7">
+      <c r="F263" s="7">
         <v>3.63</v>
       </c>
-      <c r="G262" s="6">
+      <c r="G263" s="6">
         <v>288</v>
       </c>
-      <c r="H262" s="6">
+      <c r="H263" s="6">
         <v>1963</v>
       </c>
-      <c r="I262" s="8">
+      <c r="I263" s="8">
         <v>42156</v>
       </c>
-      <c r="J262" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
-      <c r="A263" s="6" t="s">
+      <c r="J263" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1022">
+      <c r="A264" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B264" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C263" s="6" t="s">
+      <c r="C264" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D263" s="6" t="s">
+      <c r="D264" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E263" s="6">
+      <c r="E264" s="6">
         <v>2</v>
       </c>
-      <c r="F263" s="7">
+      <c r="F264" s="7">
         <v>3.29</v>
       </c>
-      <c r="G263" s="6">
+      <c r="G264" s="6">
         <v>272</v>
       </c>
-      <c r="H263" s="6">
+      <c r="H264" s="6">
         <v>2010</v>
       </c>
-      <c r="I263" s="8">
+      <c r="I264" s="8">
         <v>42188</v>
       </c>
-      <c r="J263" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
-      <c r="A264" s="6" t="s">
+      <c r="J264" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1022">
+      <c r="A265" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B265" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C264" s="6" t="s">
+      <c r="C265" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D264" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E264" s="6">
+      <c r="D265" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E265" s="6">
         <v>4</v>
       </c>
-      <c r="F264" s="7">
+      <c r="F265" s="7">
         <v>3.71</v>
       </c>
-      <c r="G264" s="6">
+      <c r="G265" s="6">
         <v>561</v>
       </c>
-      <c r="H264" s="6">
+      <c r="H265" s="6">
         <v>1988</v>
       </c>
-      <c r="I264" s="8">
+      <c r="I265" s="8">
         <v>42191</v>
       </c>
-      <c r="J264" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10">
-      <c r="A265" s="6" t="s">
+      <c r="J265" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1022">
+      <c r="A266" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B266" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C265" s="6" t="s">
+      <c r="C266" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D265" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E265" s="6">
+      <c r="D266" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E266" s="6">
         <v>5</v>
       </c>
-      <c r="F265" s="7">
+      <c r="F266" s="7">
         <v>3.57</v>
       </c>
-      <c r="G265" s="6">
+      <c r="G266" s="6">
         <v>436</v>
       </c>
-      <c r="H265" s="6">
+      <c r="H266" s="6">
         <v>2002</v>
       </c>
-      <c r="I265" s="8">
+      <c r="I266" s="8">
         <v>42205</v>
       </c>
-      <c r="J265" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10">
-      <c r="A266" s="6" t="s">
+      <c r="J266" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1022">
+      <c r="A267" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B267" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C266" s="6" t="s">
+      <c r="C267" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E266" s="6">
-        <v>4</v>
-      </c>
-      <c r="F266" s="7">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="G266" s="6">
-        <v>168</v>
-      </c>
-      <c r="H266" s="6">
-        <v>1997</v>
-      </c>
-      <c r="I266" s="8">
-        <v>42210</v>
-      </c>
-      <c r="J266" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10">
-      <c r="A267" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E267" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F267" s="7">
-        <v>3.85</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G267" s="6">
-        <v>438</v>
+        <v>168</v>
       </c>
       <c r="H267" s="6">
-        <v>1852</v>
+        <v>1997</v>
       </c>
       <c r="I267" s="8">
         <v>42210</v>
@@ -13412,47 +15453,47 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:1022">
       <c r="A268" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>332</v>
+        <v>498</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E268" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F268" s="7">
-        <v>4.1100000000000003</v>
+        <v>3.85</v>
       </c>
       <c r="G268" s="6">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="H268" s="6">
-        <v>2007</v>
+        <v>1852</v>
       </c>
       <c r="I268" s="8">
-        <v>42215</v>
+        <v>42210</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:1022">
       <c r="A269" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>501</v>
+        <v>332</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>436</v>
+        <v>17</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>21</v>
@@ -13461,13 +15502,13 @@
         <v>5</v>
       </c>
       <c r="F269" s="7">
-        <v>4.12</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="G269" s="6">
-        <v>499</v>
+        <v>400</v>
       </c>
       <c r="H269" s="6">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="I269" s="8">
         <v>42215</v>
@@ -13476,15 +15517,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:1022">
       <c r="A270" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>17</v>
+        <v>436</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>21</v>
@@ -13493,13 +15534,13 @@
         <v>5</v>
       </c>
       <c r="F270" s="7">
-        <v>5</v>
+        <v>4.12</v>
       </c>
       <c r="G270" s="6">
-        <v>262</v>
+        <v>499</v>
       </c>
       <c r="H270" s="6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I270" s="8">
         <v>42215</v>
@@ -13508,15 +15549,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:1022">
       <c r="A271" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>21</v>
@@ -13525,27 +15566,27 @@
         <v>5</v>
       </c>
       <c r="F271" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G271" s="6">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H271" s="6">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="I271" s="8">
-        <v>42224</v>
+        <v>42215</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:1022">
       <c r="A272" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>217</v>
@@ -13554,19 +15595,19 @@
         <v>21</v>
       </c>
       <c r="E272" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F272" s="7">
-        <v>4.22</v>
+        <v>4.5</v>
       </c>
       <c r="G272" s="6">
-        <v>758</v>
+        <v>261</v>
       </c>
       <c r="H272" s="6">
-        <v>1946</v>
+        <v>1992</v>
       </c>
       <c r="I272" s="8">
-        <v>42232</v>
+        <v>42224</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>14</v>
@@ -13574,10 +15615,10 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>217</v>
@@ -13586,16 +15627,16 @@
         <v>21</v>
       </c>
       <c r="E273" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F273" s="7">
-        <v>4.33</v>
+        <v>4.22</v>
       </c>
       <c r="G273" s="6">
-        <v>544</v>
+        <v>758</v>
       </c>
       <c r="H273" s="6">
-        <v>1966</v>
+        <v>1946</v>
       </c>
       <c r="I273" s="8">
         <v>42232</v>
@@ -13606,31 +15647,31 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E274" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F274" s="7">
-        <v>3.43</v>
+        <v>4.33</v>
       </c>
       <c r="G274" s="6">
-        <v>375</v>
+        <v>544</v>
       </c>
       <c r="H274" s="6">
-        <v>2012</v>
+        <v>1966</v>
       </c>
       <c r="I274" s="8">
-        <v>42240</v>
+        <v>42232</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>14</v>
@@ -13638,10 +15679,10 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>51</v>
@@ -13650,19 +15691,19 @@
         <v>21</v>
       </c>
       <c r="E275" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F275" s="7">
-        <v>3.61</v>
+        <v>3.43</v>
       </c>
       <c r="G275" s="6">
-        <v>240</v>
+        <v>375</v>
       </c>
       <c r="H275" s="6">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="I275" s="8">
-        <v>42246</v>
+        <v>42240</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>14</v>
@@ -13670,31 +15711,31 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E276" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F276" s="7">
-        <v>3.44</v>
+        <v>3.61</v>
       </c>
       <c r="G276" s="6">
-        <v>493</v>
+        <v>240</v>
       </c>
       <c r="H276" s="6">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="I276" s="8">
-        <v>42253</v>
+        <v>42246</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>14</v>
@@ -13702,31 +15743,31 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E277" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F277" s="7">
-        <v>4.0599999999999996</v>
+        <v>3.44</v>
       </c>
       <c r="G277" s="6">
-        <v>128</v>
+        <v>493</v>
       </c>
       <c r="H277" s="6">
-        <v>1933</v>
+        <v>2013</v>
       </c>
       <c r="I277" s="8">
-        <v>42271</v>
+        <v>42253</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>14</v>
@@ -13734,13 +15775,13 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>21</v>
@@ -13749,16 +15790,16 @@
         <v>5</v>
       </c>
       <c r="F278" s="7">
-        <v>4.3</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="G278" s="6">
-        <v>477</v>
+        <v>128</v>
       </c>
       <c r="H278" s="6">
-        <v>2015</v>
+        <v>1933</v>
       </c>
       <c r="I278" s="8">
-        <v>42276</v>
+        <v>42271</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>14</v>
@@ -13766,31 +15807,31 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E279" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F279" s="7">
-        <v>3.56</v>
+        <v>4.3</v>
       </c>
       <c r="G279" s="6">
-        <v>288</v>
+        <v>477</v>
       </c>
       <c r="H279" s="6">
-        <v>2003</v>
-      </c>
-      <c r="I279" s="10">
-        <v>42291</v>
+        <v>2015</v>
+      </c>
+      <c r="I279" s="8">
+        <v>42276</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>14</v>
@@ -13798,10 +15839,10 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>20</v>
@@ -13813,16 +15854,16 @@
         <v>3</v>
       </c>
       <c r="F280" s="7">
-        <v>4.05</v>
+        <v>3.56</v>
       </c>
       <c r="G280" s="6">
-        <v>397</v>
+        <v>288</v>
       </c>
       <c r="H280" s="6">
-        <v>2015</v>
-      </c>
-      <c r="I280" s="8">
-        <v>42317</v>
+        <v>2003</v>
+      </c>
+      <c r="I280" s="10">
+        <v>42291</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>14</v>
@@ -13830,31 +15871,31 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E281" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F281" s="7">
-        <v>4.2699999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="G281" s="6">
-        <v>946</v>
+        <v>397</v>
       </c>
       <c r="H281" s="6">
-        <v>2003</v>
-      </c>
-      <c r="I281" s="10">
-        <v>42324</v>
+        <v>2015</v>
+      </c>
+      <c r="I281" s="8">
+        <v>42317</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>14</v>
@@ -13862,31 +15903,31 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>17</v>
+        <v>297</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E282" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F282" s="7">
-        <v>4.21</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="G282" s="6">
-        <v>432</v>
+        <v>946</v>
       </c>
       <c r="H282" s="6">
-        <v>2015</v>
-      </c>
-      <c r="I282" s="8">
-        <v>42381</v>
+        <v>2003</v>
+      </c>
+      <c r="I282" s="10">
+        <v>42324</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>14</v>
@@ -13894,31 +15935,31 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>228</v>
+        <v>527</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E283" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F283" s="7">
-        <v>4.2699999999999996</v>
+        <v>4.21</v>
       </c>
       <c r="G283" s="6">
-        <v>840</v>
+        <v>432</v>
       </c>
       <c r="H283" s="6">
         <v>2015</v>
       </c>
       <c r="I283" s="8">
-        <v>42397</v>
+        <v>42381</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>14</v>
@@ -13926,31 +15967,31 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>530</v>
+        <v>228</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E284" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F284" s="7">
-        <v>4.25</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="G284" s="6">
-        <v>221</v>
+        <v>840</v>
       </c>
       <c r="H284" s="6">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="I284" s="8">
-        <v>42413</v>
+        <v>42397</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>14</v>
@@ -13958,31 +15999,31 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>533</v>
+        <v>17</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E285" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F285" s="7">
-        <v>4.3499999999999996</v>
+        <v>4.25</v>
       </c>
       <c r="G285" s="6">
-        <v>372</v>
+        <v>221</v>
       </c>
       <c r="H285" s="6">
         <v>2007</v>
       </c>
       <c r="I285" s="8">
-        <v>42420</v>
+        <v>42413</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>14</v>
@@ -13990,25 +16031,28 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>253</v>
+        <v>533</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E286" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F286" s="7">
-        <v>3.75</v>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G286" s="6">
+        <v>372</v>
       </c>
       <c r="H286" s="6">
-        <v>1905</v>
+        <v>2007</v>
       </c>
       <c r="I286" s="8">
         <v>42420</v>
@@ -14019,31 +16063,28 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E287" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F287" s="7">
-        <v>3.94</v>
-      </c>
-      <c r="G287" s="6">
-        <v>352</v>
+        <v>3.75</v>
       </c>
       <c r="H287" s="6">
-        <v>2015</v>
+        <v>1905</v>
       </c>
       <c r="I287" s="8">
-        <v>42426</v>
+        <v>42420</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>14</v>
@@ -14051,31 +16092,31 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E288" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F288" s="7">
-        <v>4.21</v>
+        <v>3.94</v>
       </c>
       <c r="G288" s="6">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H288" s="6">
-        <v>1934</v>
+        <v>2015</v>
       </c>
       <c r="I288" s="8">
-        <v>42434</v>
+        <v>42426</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>14</v>
@@ -14083,31 +16124,31 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E289" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F289" s="7">
-        <v>4.32</v>
+        <v>4.21</v>
       </c>
       <c r="G289" s="6">
-        <v>688</v>
+        <v>304</v>
       </c>
       <c r="H289" s="6">
-        <v>2016</v>
+        <v>1934</v>
       </c>
       <c r="I289" s="8">
-        <v>42440</v>
+        <v>42434</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>14</v>
@@ -14115,10 +16156,10 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>17</v>
@@ -14127,19 +16168,19 @@
         <v>21</v>
       </c>
       <c r="E290" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F290" s="7">
-        <v>3.7</v>
+        <v>4.32</v>
       </c>
       <c r="G290" s="6">
-        <v>123</v>
+        <v>688</v>
       </c>
       <c r="H290" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I290" s="8">
-        <v>42454</v>
+        <v>42440</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>14</v>
@@ -14147,31 +16188,31 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E291" s="6">
         <v>3</v>
       </c>
       <c r="F291" s="7">
-        <v>4.21</v>
+        <v>3.7</v>
       </c>
       <c r="G291" s="6">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="H291" s="6">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="I291" s="8">
-        <v>42472</v>
+        <v>42454</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>14</v>
@@ -14179,31 +16220,31 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E292" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F292" s="7">
-        <v>4.3</v>
+        <v>4.21</v>
       </c>
       <c r="G292" s="6">
-        <v>448</v>
+        <v>204</v>
       </c>
       <c r="H292" s="6">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="I292" s="8">
-        <v>42481</v>
+        <v>42472</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>14</v>
@@ -14211,31 +16252,31 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E293" s="6">
         <v>5</v>
       </c>
       <c r="F293" s="7">
-        <v>4.2300000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="G293" s="6">
-        <v>264</v>
-      </c>
-      <c r="H293" s="1">
-        <v>2016</v>
+        <v>448</v>
+      </c>
+      <c r="H293" s="6">
+        <v>2015</v>
       </c>
       <c r="I293" s="8">
-        <v>42506</v>
+        <v>42481</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>14</v>
@@ -14243,28 +16284,28 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E294" s="6">
         <v>5</v>
       </c>
       <c r="F294" s="7">
-        <v>4.24</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G294" s="6">
-        <v>306</v>
-      </c>
-      <c r="H294" s="6">
-        <v>2014</v>
+        <v>264</v>
+      </c>
+      <c r="H294" s="1">
+        <v>2016</v>
       </c>
       <c r="I294" s="8">
         <v>42506</v>
@@ -14275,10 +16316,10 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C295" s="6" t="s">
         <v>17</v>
@@ -14290,16 +16331,16 @@
         <v>5</v>
       </c>
       <c r="F295" s="7">
-        <v>3.9</v>
+        <v>4.24</v>
       </c>
       <c r="G295" s="6">
-        <v>499</v>
+        <v>306</v>
       </c>
       <c r="H295" s="6">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="I295" s="8">
-        <v>42528</v>
+        <v>42506</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>14</v>
@@ -14307,13 +16348,13 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>21</v>
@@ -14322,16 +16363,16 @@
         <v>5</v>
       </c>
       <c r="F296" s="7">
-        <v>4.1500000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="G296" s="6">
-        <v>204</v>
+        <v>499</v>
       </c>
       <c r="H296" s="6">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="I296" s="8">
-        <v>42536</v>
+        <v>42528</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>14</v>
@@ -14339,13 +16380,13 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>21</v>
@@ -14354,16 +16395,16 @@
         <v>5</v>
       </c>
       <c r="F297" s="7">
-        <v>4.17</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="G297" s="6">
-        <v>320</v>
+        <v>204</v>
       </c>
       <c r="H297" s="6">
-        <v>1937</v>
+        <v>2014</v>
       </c>
       <c r="I297" s="8">
-        <v>42564</v>
+        <v>42536</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>14</v>
@@ -14371,10 +16412,10 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>17</v>
@@ -14383,16 +16424,16 @@
         <v>21</v>
       </c>
       <c r="E298" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F298" s="7">
-        <v>4.07</v>
+        <v>4.17</v>
       </c>
       <c r="G298" s="6">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="H298" s="6">
-        <v>1989</v>
+        <v>1937</v>
       </c>
       <c r="I298" s="8">
         <v>42564</v>
@@ -14403,10 +16444,10 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>17</v>
@@ -14415,16 +16456,16 @@
         <v>21</v>
       </c>
       <c r="E299" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F299" s="7">
-        <v>4.16</v>
+        <v>4.07</v>
       </c>
       <c r="G299" s="6">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="H299" s="6">
-        <v>1936</v>
+        <v>1989</v>
       </c>
       <c r="I299" s="8">
         <v>42564</v>
@@ -14435,10 +16476,10 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>17</v>
@@ -14447,16 +16488,16 @@
         <v>21</v>
       </c>
       <c r="E300" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F300" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.16</v>
       </c>
       <c r="G300" s="6">
         <v>288</v>
       </c>
       <c r="H300" s="6">
-        <v>2012</v>
+        <v>1936</v>
       </c>
       <c r="I300" s="8">
         <v>42564</v>
@@ -14467,28 +16508,28 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>566</v>
+        <v>17</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E301" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F301" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G301" s="6">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="H301" s="6">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="I301" s="8">
         <v>42564</v>
@@ -14499,31 +16540,31 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>17</v>
+        <v>566</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E302" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F302" s="7">
-        <v>4.13</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G302" s="6">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="H302" s="6">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="I302" s="8">
-        <v>42566</v>
+        <v>42564</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>14</v>
@@ -14531,10 +16572,10 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>17</v>
@@ -14546,16 +16587,16 @@
         <v>3</v>
       </c>
       <c r="F303" s="7">
-        <v>4</v>
+        <v>4.13</v>
       </c>
       <c r="G303" s="6">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="H303" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I303" s="8">
-        <v>42575</v>
+        <v>42566</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>14</v>
@@ -14563,10 +16604,10 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>17</v>
@@ -14575,16 +16616,16 @@
         <v>21</v>
       </c>
       <c r="E304" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F304" s="7">
-        <v>4.21</v>
+        <v>4</v>
       </c>
       <c r="G304" s="6">
-        <v>386</v>
+        <v>288</v>
       </c>
       <c r="H304" s="6">
-        <v>1959</v>
+        <v>2015</v>
       </c>
       <c r="I304" s="8">
         <v>42575</v>
@@ -14595,10 +16636,10 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>17</v>
@@ -14607,19 +16648,19 @@
         <v>21</v>
       </c>
       <c r="E305" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F305" s="7">
-        <v>4.25</v>
+        <v>4.21</v>
       </c>
       <c r="G305" s="6">
-        <v>194</v>
+        <v>386</v>
       </c>
       <c r="H305" s="6">
-        <v>1926</v>
+        <v>1959</v>
       </c>
       <c r="I305" s="8">
-        <v>42577</v>
+        <v>42575</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>14</v>
@@ -14627,31 +16668,31 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E306" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F306" s="7">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="G306" s="6">
-        <v>343</v>
+        <v>194</v>
       </c>
       <c r="H306" s="6">
-        <v>2016</v>
+        <v>1926</v>
       </c>
       <c r="I306" s="8">
-        <v>42583</v>
+        <v>42577</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>14</v>
@@ -14659,28 +16700,28 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E307" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F307" s="7">
-        <v>4.12</v>
+        <v>3.7</v>
       </c>
       <c r="G307" s="6">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="H307" s="6">
-        <v>1994</v>
+        <v>2016</v>
       </c>
       <c r="I307" s="8">
         <v>42583</v>
@@ -14691,10 +16732,10 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>17</v>
@@ -14703,19 +16744,19 @@
         <v>21</v>
       </c>
       <c r="E308" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F308" s="7">
-        <v>4.05</v>
+        <v>4.12</v>
       </c>
       <c r="G308" s="6">
-        <v>448</v>
+        <v>304</v>
       </c>
       <c r="H308" s="6">
         <v>1994</v>
       </c>
       <c r="I308" s="8">
-        <v>42589</v>
+        <v>42583</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>14</v>
@@ -14723,31 +16764,31 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E309" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F309" s="7">
-        <v>3.37</v>
+        <v>4.05</v>
       </c>
       <c r="G309" s="6">
-        <v>407</v>
-      </c>
-      <c r="H309" s="1">
-        <v>2003</v>
+        <v>448</v>
+      </c>
+      <c r="H309" s="6">
+        <v>1994</v>
       </c>
       <c r="I309" s="8">
-        <v>42618</v>
+        <v>42589</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>14</v>
@@ -14755,31 +16796,31 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E310" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F310" s="7">
-        <v>4.22</v>
+        <v>3.37</v>
       </c>
       <c r="G310" s="6">
-        <v>600</v>
+        <v>407</v>
       </c>
       <c r="H310" s="1">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="I310" s="8">
-        <v>42637</v>
+        <v>42618</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>14</v>
@@ -14787,10 +16828,10 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>17</v>
@@ -14802,16 +16843,16 @@
         <v>5</v>
       </c>
       <c r="F311" s="7">
-        <v>4.03</v>
+        <v>4.22</v>
       </c>
       <c r="G311" s="6">
-        <v>304</v>
-      </c>
-      <c r="H311" s="6">
-        <v>2016</v>
+        <v>600</v>
+      </c>
+      <c r="H311" s="1">
+        <v>2015</v>
       </c>
       <c r="I311" s="8">
-        <v>42638</v>
+        <v>42637</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>14</v>
@@ -14819,10 +16860,10 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>17</v>
@@ -14831,19 +16872,19 @@
         <v>21</v>
       </c>
       <c r="E312" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F312" s="7">
-        <v>3.33</v>
+        <v>4.03</v>
       </c>
       <c r="G312" s="6">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="H312" s="6">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="I312" s="8">
-        <v>42648</v>
+        <v>42638</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>14</v>
@@ -14851,31 +16892,31 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E313" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F313" s="7">
-        <v>3.29</v>
-      </c>
-      <c r="G313" s="1">
-        <v>204</v>
+        <v>3.33</v>
+      </c>
+      <c r="G313" s="6">
+        <v>235</v>
       </c>
       <c r="H313" s="6">
-        <v>1999</v>
-      </c>
-      <c r="I313" s="10">
-        <v>42661</v>
+        <v>2005</v>
+      </c>
+      <c r="I313" s="8">
+        <v>42648</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>14</v>
@@ -14883,13 +16924,13 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>21</v>
@@ -14898,16 +16939,16 @@
         <v>4</v>
       </c>
       <c r="F314" s="7">
-        <v>3.57</v>
-      </c>
-      <c r="G314" s="6">
-        <v>384</v>
+        <v>3.29</v>
+      </c>
+      <c r="G314" s="1">
+        <v>204</v>
       </c>
       <c r="H314" s="6">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="I314" s="10">
-        <v>42665</v>
+        <v>42661</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>14</v>
@@ -14915,31 +16956,31 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E315" s="6">
         <v>4</v>
       </c>
       <c r="F315" s="7">
-        <v>3</v>
+        <v>3.57</v>
       </c>
       <c r="G315" s="6">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="H315" s="6">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="I315" s="10">
-        <v>42672</v>
+        <v>42665</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>14</v>
@@ -14947,31 +16988,31 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E316" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F316" s="7">
-        <v>4.3099999999999996</v>
+        <v>3</v>
       </c>
       <c r="G316" s="6">
-        <v>473</v>
+        <v>326</v>
       </c>
       <c r="H316" s="6">
-        <v>2015</v>
-      </c>
-      <c r="I316" s="8">
-        <v>42708</v>
+        <v>2007</v>
+      </c>
+      <c r="I316" s="10">
+        <v>42672</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>14</v>
@@ -14979,31 +17020,31 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E317" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F317" s="7">
-        <v>3.87</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="G317" s="6">
-        <v>259</v>
+        <v>473</v>
       </c>
       <c r="H317" s="6">
-        <v>2016</v>
-      </c>
-      <c r="I317" s="10">
-        <v>42720</v>
+        <v>2015</v>
+      </c>
+      <c r="I317" s="8">
+        <v>42708</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>14</v>
@@ -15011,10 +17052,10 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>17</v>
@@ -15023,19 +17064,19 @@
         <v>21</v>
       </c>
       <c r="E318" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F318" s="7">
-        <v>3.84</v>
+        <v>3.87</v>
       </c>
       <c r="G318" s="6">
-        <v>456</v>
+        <v>259</v>
       </c>
       <c r="H318" s="6">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="I318" s="10">
-        <v>42728</v>
+        <v>42720</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>14</v>
@@ -15043,31 +17084,31 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E319" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F319" s="7">
-        <v>3.44</v>
+        <v>3.84</v>
       </c>
       <c r="G319" s="6">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="H319" s="6">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="I319" s="10">
-        <v>42731</v>
+        <v>42728</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>14</v>
@@ -15075,31 +17116,31 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E320" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F320" s="7">
-        <v>4.13</v>
+        <v>3.44</v>
       </c>
       <c r="G320" s="6">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="H320" s="6">
-        <v>2012</v>
-      </c>
-      <c r="I320" s="8">
-        <v>42738</v>
+        <v>2007</v>
+      </c>
+      <c r="I320" s="10">
+        <v>42731</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>14</v>
@@ -15107,10 +17148,10 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>17</v>
@@ -15119,19 +17160,19 @@
         <v>21</v>
       </c>
       <c r="E321" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F321" s="7">
-        <v>4.07</v>
+        <v>4.13</v>
       </c>
       <c r="G321" s="6">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="H321" s="6">
-        <v>1969</v>
+        <v>2012</v>
       </c>
       <c r="I321" s="8">
-        <v>42749</v>
+        <v>42738</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>14</v>
@@ -15139,10 +17180,10 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>553</v>
+        <v>606</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>17</v>
@@ -15151,19 +17192,19 @@
         <v>21</v>
       </c>
       <c r="E322" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F322" s="7">
-        <v>4.2</v>
+        <v>4.07</v>
       </c>
       <c r="G322" s="6">
-        <v>802</v>
+        <v>275</v>
       </c>
       <c r="H322" s="6">
-        <v>2010</v>
+        <v>1969</v>
       </c>
       <c r="I322" s="8">
-        <v>42750</v>
+        <v>42749</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>14</v>
@@ -15171,28 +17212,28 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>264</v>
+        <v>553</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E323" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F323" s="7">
-        <v>4.17</v>
+        <v>4.2</v>
       </c>
       <c r="G323" s="6">
-        <v>233</v>
+        <v>802</v>
       </c>
       <c r="H323" s="6">
-        <v>1864</v>
+        <v>2010</v>
       </c>
       <c r="I323" s="8">
         <v>42750</v>
@@ -15203,31 +17244,31 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>610</v>
+        <v>264</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E324" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F324" s="7">
-        <v>3.59</v>
+        <v>4.17</v>
       </c>
       <c r="G324" s="6">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c r="H324" s="6">
-        <v>1994</v>
+        <v>1864</v>
       </c>
       <c r="I324" s="8">
-        <v>42751</v>
+        <v>42750</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>14</v>
@@ -15235,31 +17276,31 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E325" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F325" s="7">
-        <v>3.85</v>
+        <v>3.59</v>
       </c>
       <c r="G325" s="6">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="H325" s="6">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="I325" s="8">
-        <v>42758</v>
+        <v>42751</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>14</v>
@@ -15267,28 +17308,28 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>258</v>
+        <v>612</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E326" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F326" s="7">
-        <v>4.3499999999999996</v>
+        <v>3.85</v>
       </c>
       <c r="G326" s="6">
-        <v>688</v>
+        <v>328</v>
       </c>
       <c r="H326" s="6">
-        <v>1843</v>
+        <v>2006</v>
       </c>
       <c r="I326" s="8">
         <v>42758</v>
@@ -15299,13 +17340,13 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>615</v>
+        <v>258</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>21</v>
@@ -15314,16 +17355,16 @@
         <v>5</v>
       </c>
       <c r="F327" s="7">
-        <v>4.09</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G327" s="6">
-        <v>320</v>
+        <v>688</v>
       </c>
       <c r="H327" s="6">
-        <v>1984</v>
+        <v>1843</v>
       </c>
       <c r="I327" s="8">
-        <v>42772</v>
+        <v>42758</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>14</v>
@@ -15331,7 +17372,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>615</v>
@@ -15346,16 +17387,16 @@
         <v>5</v>
       </c>
       <c r="F328" s="7">
-        <v>4</v>
+        <v>4.09</v>
       </c>
       <c r="G328" s="6">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H328" s="6">
-        <v>1979</v>
+        <v>1984</v>
       </c>
       <c r="I328" s="8">
-        <v>42777</v>
+        <v>42772</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>14</v>
@@ -15363,28 +17404,28 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>268</v>
+        <v>615</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E329" s="6">
+        <v>5</v>
+      </c>
+      <c r="F329" s="7">
         <v>4</v>
       </c>
-      <c r="F329" s="7">
-        <v>4.0199999999999996</v>
-      </c>
       <c r="G329" s="6">
-        <v>471</v>
+        <v>313</v>
       </c>
       <c r="H329" s="6">
-        <v>1996</v>
+        <v>1979</v>
       </c>
       <c r="I329" s="8">
         <v>42777</v>
@@ -15395,10 +17436,10 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>619</v>
+        <v>268</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>17</v>
@@ -15410,16 +17451,16 @@
         <v>4</v>
       </c>
       <c r="F330" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="G330" s="6">
-        <v>256</v>
+        <v>471</v>
       </c>
       <c r="H330" s="6">
-        <v>2010</v>
+        <v>1996</v>
       </c>
       <c r="I330" s="8">
-        <v>42792</v>
+        <v>42777</v>
       </c>
       <c r="J330" s="1" t="s">
         <v>14</v>
@@ -15427,10 +17468,10 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>268</v>
+        <v>619</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>17</v>
@@ -15442,13 +17483,13 @@
         <v>4</v>
       </c>
       <c r="F331" s="7">
-        <v>4.09</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G331" s="6">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="H331" s="6">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="I331" s="8">
         <v>42792</v>
@@ -15459,10 +17500,10 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>622</v>
+        <v>268</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>17</v>
@@ -15471,19 +17512,19 @@
         <v>21</v>
       </c>
       <c r="E332" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F332" s="7">
-        <v>3.87</v>
+        <v>4.09</v>
       </c>
       <c r="G332" s="6">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="H332" s="6">
-        <v>1954</v>
+        <v>1980</v>
       </c>
       <c r="I332" s="8">
-        <v>42797</v>
+        <v>42792</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>14</v>
@@ -15491,13 +17532,13 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>436</v>
+        <v>17</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>21</v>
@@ -15506,13 +17547,13 @@
         <v>5</v>
       </c>
       <c r="F333" s="7">
-        <v>4.3</v>
+        <v>3.87</v>
       </c>
       <c r="G333" s="6">
-        <v>450</v>
+        <v>142</v>
       </c>
       <c r="H333" s="6">
-        <v>2015</v>
+        <v>1954</v>
       </c>
       <c r="I333" s="8">
         <v>42797</v>
@@ -15523,13 +17564,13 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>296</v>
+        <v>624</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>297</v>
+        <v>436</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>21</v>
@@ -15538,16 +17579,16 @@
         <v>5</v>
       </c>
       <c r="F334" s="7">
-        <v>3.92</v>
+        <v>4.3</v>
       </c>
       <c r="G334" s="6">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="H334" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I334" s="8">
-        <v>42803</v>
+        <v>42797</v>
       </c>
       <c r="J334" s="1" t="s">
         <v>14</v>
@@ -15555,13 +17596,13 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>627</v>
+        <v>296</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>21</v>
@@ -15570,16 +17611,16 @@
         <v>5</v>
       </c>
       <c r="F335" s="7">
-        <v>4.37</v>
+        <v>3.92</v>
       </c>
       <c r="G335" s="6">
-        <v>592</v>
+        <v>376</v>
       </c>
       <c r="H335" s="6">
         <v>2016</v>
       </c>
       <c r="I335" s="8">
-        <v>42829</v>
+        <v>42803</v>
       </c>
       <c r="J335" s="1" t="s">
         <v>14</v>
@@ -15587,28 +17628,28 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E336" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F336" s="7">
-        <v>4.2699999999999996</v>
+        <v>4.37</v>
       </c>
       <c r="G336" s="6">
-        <v>457</v>
+        <v>592</v>
       </c>
       <c r="H336" s="6">
-        <v>1995</v>
+        <v>2016</v>
       </c>
       <c r="I336" s="8">
         <v>42829</v>
@@ -15619,13 +17660,13 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>632</v>
+        <v>17</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>21</v>
@@ -15634,16 +17675,16 @@
         <v>4</v>
       </c>
       <c r="F337" s="7">
-        <v>3.99</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="G337" s="6">
-        <v>368</v>
-      </c>
-      <c r="H337" s="1">
-        <v>2017</v>
+        <v>457</v>
+      </c>
+      <c r="H337" s="6">
+        <v>1995</v>
       </c>
       <c r="I337" s="8">
-        <v>42847</v>
+        <v>42829</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>14</v>
@@ -15651,13 +17692,13 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338" s="6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>17</v>
+        <v>632</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>21</v>
@@ -15666,16 +17707,16 @@
         <v>4</v>
       </c>
       <c r="F338" s="7">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
       <c r="G338" s="6">
-        <v>395</v>
-      </c>
-      <c r="H338" s="6">
-        <v>1978</v>
+        <v>368</v>
+      </c>
+      <c r="H338" s="1">
+        <v>2017</v>
       </c>
       <c r="I338" s="8">
-        <v>42848</v>
+        <v>42847</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>14</v>
@@ -15683,10 +17724,10 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>17</v>
@@ -15695,19 +17736,19 @@
         <v>21</v>
       </c>
       <c r="E339" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F339" s="7">
-        <v>3.9</v>
+        <v>4.08</v>
       </c>
       <c r="G339" s="6">
-        <v>178</v>
+        <v>395</v>
       </c>
       <c r="H339" s="6">
-        <v>2014</v>
+        <v>1978</v>
       </c>
       <c r="I339" s="8">
-        <v>42859</v>
+        <v>42848</v>
       </c>
       <c r="J339" s="1" t="s">
         <v>14</v>
@@ -15715,10 +17756,10 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>17</v>
@@ -15730,16 +17771,16 @@
         <v>5</v>
       </c>
       <c r="F340" s="7">
-        <v>3.96</v>
+        <v>3.9</v>
       </c>
       <c r="G340" s="6">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="H340" s="6">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="I340" s="8">
-        <v>42870</v>
+        <v>42859</v>
       </c>
       <c r="J340" s="1" t="s">
         <v>14</v>
@@ -15747,10 +17788,10 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>17</v>
@@ -15759,19 +17800,19 @@
         <v>21</v>
       </c>
       <c r="E341" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F341" s="7">
-        <v>4.09</v>
+        <v>3.96</v>
       </c>
       <c r="G341" s="6">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="H341" s="6">
-        <v>1977</v>
+        <v>2012</v>
       </c>
       <c r="I341" s="8">
-        <v>42883</v>
+        <v>42870</v>
       </c>
       <c r="J341" s="1" t="s">
         <v>14</v>
@@ -15779,13 +17820,13 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>523</v>
+        <v>640</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>21</v>
@@ -15794,16 +17835,16 @@
         <v>4</v>
       </c>
       <c r="F342" s="7">
-        <v>3.88</v>
+        <v>4.09</v>
       </c>
       <c r="G342" s="6">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="H342" s="6">
-        <v>2012</v>
+        <v>1977</v>
       </c>
       <c r="I342" s="8">
-        <v>42898</v>
+        <v>42883</v>
       </c>
       <c r="J342" s="1" t="s">
         <v>14</v>
@@ -15811,10 +17852,10 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>643</v>
+        <v>523</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>20</v>
@@ -15826,16 +17867,16 @@
         <v>4</v>
       </c>
       <c r="F343" s="7">
-        <v>3.53</v>
+        <v>3.88</v>
       </c>
       <c r="G343" s="6">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H343" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="I343" s="8">
-        <v>42927</v>
+        <v>42898</v>
       </c>
       <c r="J343" s="1" t="s">
         <v>14</v>
@@ -15843,31 +17884,31 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E344" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F344" s="7">
-        <v>4.25</v>
+        <v>3.53</v>
       </c>
       <c r="G344" s="6">
-        <v>1008</v>
+        <v>320</v>
       </c>
       <c r="H344" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I344" s="8">
-        <v>42946</v>
+        <v>42927</v>
       </c>
       <c r="J344" s="1" t="s">
         <v>14</v>
@@ -15875,13 +17916,13 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>21</v>
@@ -15890,16 +17931,16 @@
         <v>5</v>
       </c>
       <c r="F345" s="7">
-        <v>4.07</v>
+        <v>4.25</v>
       </c>
       <c r="G345" s="6">
-        <v>798</v>
+        <v>1008</v>
       </c>
       <c r="H345" s="6">
-        <v>1321</v>
+        <v>2015</v>
       </c>
       <c r="I345" s="8">
-        <v>42953</v>
+        <v>42946</v>
       </c>
       <c r="J345" s="1" t="s">
         <v>14</v>
@@ -15907,28 +17948,28 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>256</v>
+        <v>647</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E346" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F346" s="7">
-        <v>3.45</v>
+        <v>4.07</v>
       </c>
       <c r="G346" s="6">
-        <v>289</v>
+        <v>798</v>
       </c>
       <c r="H346" s="6">
-        <v>1959</v>
+        <v>1321</v>
       </c>
       <c r="I346" s="8">
         <v>42953</v>
@@ -15939,31 +17980,31 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>328</v>
+        <v>256</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E347" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F347" s="7">
-        <v>3.84</v>
+        <v>3.45</v>
       </c>
       <c r="G347" s="6">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="H347" s="6">
-        <v>1975</v>
+        <v>1959</v>
       </c>
       <c r="I347" s="8">
-        <v>42973</v>
+        <v>42953</v>
       </c>
       <c r="J347" s="1" t="s">
         <v>14</v>
@@ -15971,28 +18012,28 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>651</v>
+        <v>328</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>24</v>
+        <v>329</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E348" s="6">
         <v>5</v>
       </c>
       <c r="F348" s="7">
-        <v>3.82</v>
+        <v>3.84</v>
       </c>
       <c r="G348" s="6">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="H348" s="6">
-        <v>1952</v>
+        <v>1975</v>
       </c>
       <c r="I348" s="8">
         <v>42973</v>
@@ -16003,28 +18044,28 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E349" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F349" s="7">
-        <v>3.66</v>
+        <v>3.82</v>
       </c>
       <c r="G349" s="6">
-        <v>329</v>
+        <v>109</v>
       </c>
       <c r="H349" s="6">
-        <v>1856</v>
+        <v>1952</v>
       </c>
       <c r="I349" s="8">
         <v>42973</v>
@@ -16035,28 +18076,28 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>193</v>
+        <v>653</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E350" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F350" s="7">
-        <v>3.94</v>
+        <v>3.66</v>
       </c>
       <c r="G350" s="6">
-        <v>455</v>
+        <v>329</v>
       </c>
       <c r="H350" s="6">
-        <v>1939</v>
+        <v>1856</v>
       </c>
       <c r="I350" s="8">
         <v>42973</v>
@@ -16067,28 +18108,28 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>656</v>
+        <v>193</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E351" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F351" s="7">
-        <v>4.09</v>
+        <v>3.94</v>
       </c>
       <c r="G351" s="6">
-        <v>204</v>
+        <v>455</v>
       </c>
       <c r="H351" s="6">
-        <v>1947</v>
+        <v>1939</v>
       </c>
       <c r="I351" s="8">
         <v>42973</v>
@@ -16099,31 +18140,31 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E352" s="6">
         <v>5</v>
       </c>
       <c r="F352" s="7">
-        <v>3.79</v>
+        <v>4.09</v>
       </c>
       <c r="G352" s="6">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="H352" s="6">
-        <v>1592</v>
+        <v>1947</v>
       </c>
       <c r="I352" s="8">
-        <v>42975</v>
+        <v>42973</v>
       </c>
       <c r="J352" s="1" t="s">
         <v>14</v>
@@ -16131,31 +18172,31 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E353" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F353" s="7">
-        <v>4</v>
+        <v>3.79</v>
       </c>
       <c r="G353" s="6">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="H353" s="6">
-        <v>1992</v>
+        <v>1592</v>
       </c>
       <c r="I353" s="8">
-        <v>42978</v>
+        <v>42975</v>
       </c>
       <c r="J353" s="1" t="s">
         <v>14</v>
@@ -16163,42 +18204,42 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E354" s="6">
         <v>4</v>
       </c>
       <c r="F354" s="7">
-        <v>4.2300000000000004</v>
+        <v>4</v>
       </c>
       <c r="G354" s="6">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="H354" s="6">
-        <v>2014</v>
+        <v>1992</v>
       </c>
       <c r="I354" s="8">
-        <v>43004</v>
+        <v>42978</v>
       </c>
       <c r="J354" s="1" t="s">
-        <v>663</v>
+        <v>14</v>
       </c>
     </row>
     <row r="355" spans="1:10">
       <c r="A355" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C355" s="6" t="s">
         <v>20</v>
@@ -16207,30 +18248,30 @@
         <v>21</v>
       </c>
       <c r="E355" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F355" s="7">
-        <v>4.1900000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G355" s="6">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="H355" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I355" s="8">
-        <v>43005</v>
+        <v>43004</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>14</v>
+        <v>663</v>
       </c>
     </row>
     <row r="356" spans="1:10">
       <c r="A356" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>20</v>
@@ -16239,33 +18280,33 @@
         <v>21</v>
       </c>
       <c r="E356" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F356" s="7">
-        <v>4.12</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G356" s="6">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="H356" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I356" s="8">
-        <v>43013</v>
+        <v>43005</v>
       </c>
       <c r="J356" s="1" t="s">
-        <v>663</v>
+        <v>14</v>
       </c>
     </row>
     <row r="357" spans="1:10">
       <c r="A357" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>21</v>
@@ -16274,16 +18315,16 @@
         <v>3</v>
       </c>
       <c r="F357" s="7">
-        <v>3.61</v>
+        <v>4.12</v>
       </c>
       <c r="G357" s="6">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="H357" s="6">
-        <v>1997</v>
-      </c>
-      <c r="I357" s="10">
-        <v>43026</v>
+        <v>2016</v>
+      </c>
+      <c r="I357" s="8">
+        <v>43013</v>
       </c>
       <c r="J357" s="1" t="s">
         <v>663</v>
@@ -16291,63 +18332,63 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>523</v>
+        <v>669</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E358" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F358" s="7">
-        <v>3.92</v>
+        <v>3.61</v>
       </c>
       <c r="G358" s="6">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="H358" s="6">
-        <v>2017</v>
-      </c>
-      <c r="I358" s="8">
-        <v>43045</v>
+        <v>1997</v>
+      </c>
+      <c r="I358" s="10">
+        <v>43026</v>
       </c>
       <c r="J358" s="1" t="s">
-        <v>14</v>
+        <v>663</v>
       </c>
     </row>
     <row r="359" spans="1:10">
       <c r="A359" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>62</v>
+        <v>523</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E359" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F359" s="7">
-        <v>3.45</v>
+        <v>3.92</v>
       </c>
       <c r="G359" s="6">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="H359" s="6">
-        <v>2010</v>
-      </c>
-      <c r="I359" s="10">
-        <v>43051</v>
+        <v>2017</v>
+      </c>
+      <c r="I359" s="8">
+        <v>43045</v>
       </c>
       <c r="J359" s="1" t="s">
         <v>14</v>
@@ -16355,31 +18396,31 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>673</v>
+        <v>62</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E360" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F360" s="7">
-        <v>4.34</v>
+        <v>3.45</v>
       </c>
       <c r="G360" s="6">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="H360" s="6">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="I360" s="10">
-        <v>43053</v>
+        <v>43051</v>
       </c>
       <c r="J360" s="1" t="s">
         <v>14</v>
@@ -16387,13 +18428,13 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>13</v>
@@ -16402,16 +18443,16 @@
         <v>4</v>
       </c>
       <c r="F361" s="7">
-        <v>4.51</v>
+        <v>4.34</v>
       </c>
       <c r="G361" s="6">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="H361" s="6">
-        <v>1984</v>
+        <v>2016</v>
       </c>
       <c r="I361" s="10">
-        <v>43061</v>
+        <v>43053</v>
       </c>
       <c r="J361" s="1" t="s">
         <v>14</v>
@@ -16419,28 +18460,28 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E362" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F362" s="7">
-        <v>4.33</v>
+        <v>4.51</v>
       </c>
       <c r="G362" s="6">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H362" s="6">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="I362" s="10">
         <v>43061</v>
@@ -16451,13 +18492,13 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>21</v>
@@ -16466,16 +18507,16 @@
         <v>5</v>
       </c>
       <c r="F363" s="7">
-        <v>4.18</v>
+        <v>4.33</v>
       </c>
       <c r="G363" s="6">
-        <v>224</v>
+        <v>322</v>
       </c>
       <c r="H363" s="6">
-        <v>1950</v>
-      </c>
-      <c r="I363" s="8">
-        <v>43075</v>
+        <v>2001</v>
+      </c>
+      <c r="I363" s="10">
+        <v>43061</v>
       </c>
       <c r="J363" s="1" t="s">
         <v>14</v>
@@ -16483,13 +18524,13 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>21</v>
@@ -16498,16 +18539,16 @@
         <v>5</v>
       </c>
       <c r="F364" s="7">
-        <v>4.08</v>
+        <v>4.18</v>
       </c>
       <c r="G364" s="6">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="H364" s="6">
-        <v>2013</v>
+        <v>1950</v>
       </c>
       <c r="I364" s="8">
-        <v>43077</v>
+        <v>43075</v>
       </c>
       <c r="J364" s="1" t="s">
         <v>14</v>
@@ -16515,13 +18556,13 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>21</v>
@@ -16530,27 +18571,27 @@
         <v>5</v>
       </c>
       <c r="F365" s="7">
-        <v>3.99</v>
+        <v>4.08</v>
       </c>
       <c r="G365" s="6">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="H365" s="6">
-        <v>1963</v>
+        <v>2013</v>
       </c>
       <c r="I365" s="8">
-        <v>43131</v>
+        <v>43077</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>663</v>
+        <v>14</v>
       </c>
     </row>
     <row r="366" spans="1:10">
       <c r="A366" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>17</v>
@@ -16559,19 +18600,19 @@
         <v>21</v>
       </c>
       <c r="E366" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F366" s="7">
-        <v>3.61</v>
+        <v>3.99</v>
       </c>
       <c r="G366" s="6">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="H366" s="6">
-        <v>2003</v>
+        <v>1963</v>
       </c>
       <c r="I366" s="8">
-        <v>43137</v>
+        <v>43131</v>
       </c>
       <c r="J366" s="1" t="s">
         <v>663</v>
@@ -16579,31 +18620,31 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>388</v>
+        <v>684</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E367" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F367" s="7">
-        <v>4.38</v>
+        <v>3.61</v>
       </c>
       <c r="G367" s="6">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="H367" s="6">
-        <v>1883</v>
+        <v>2003</v>
       </c>
       <c r="I367" s="8">
-        <v>43144</v>
+        <v>43137</v>
       </c>
       <c r="J367" s="1" t="s">
         <v>663</v>
@@ -16611,31 +18652,31 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>687</v>
+        <v>388</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E368" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F368" s="7">
-        <v>4.3499999999999996</v>
+        <v>4.38</v>
       </c>
       <c r="G368" s="6">
-        <v>1305</v>
+        <v>338</v>
       </c>
       <c r="H368" s="6">
-        <v>1978</v>
+        <v>1883</v>
       </c>
       <c r="I368" s="8">
-        <v>43147</v>
+        <v>43144</v>
       </c>
       <c r="J368" s="1" t="s">
         <v>663</v>
@@ -16643,13 +18684,13 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>21</v>
@@ -16658,45 +18699,45 @@
         <v>4</v>
       </c>
       <c r="F369" s="7">
-        <v>4.0199999999999996</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G369" s="6">
-        <v>352</v>
+        <v>1305</v>
       </c>
       <c r="H369" s="6">
-        <v>2009</v>
+        <v>1978</v>
       </c>
       <c r="I369" s="8">
         <v>43147</v>
       </c>
       <c r="J369" s="1" t="s">
-        <v>14</v>
+        <v>663</v>
       </c>
     </row>
     <row r="370" spans="1:10">
       <c r="A370" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E370" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F370" s="7">
-        <v>4.6500000000000004</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="G370" s="6">
         <v>352</v>
       </c>
       <c r="H370" s="6">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="I370" s="8">
         <v>43147</v>
@@ -16707,29 +18748,31 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="C371" s="6"/>
+        <v>691</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D371" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E371" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F371" s="7">
-        <v>4.05</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G371" s="6">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="H371" s="6">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="I371" s="8">
-        <v>43156</v>
+        <v>43147</v>
       </c>
       <c r="J371" s="1" t="s">
         <v>14</v>
@@ -16737,45 +18780,43 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C372" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="C372" s="6"/>
       <c r="D372" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E372" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F372" s="7">
-        <v>4.01</v>
+        <v>4.05</v>
       </c>
       <c r="G372" s="6">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H372" s="6">
-        <v>1603</v>
+        <v>2015</v>
       </c>
       <c r="I372" s="8">
-        <v>43164</v>
+        <v>43156</v>
       </c>
       <c r="J372" s="1" t="s">
-        <v>663</v>
+        <v>14</v>
       </c>
     </row>
     <row r="373" spans="1:10">
       <c r="A373" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>21</v>
@@ -16784,16 +18825,16 @@
         <v>5</v>
       </c>
       <c r="F373" s="7">
-        <v>4.1399999999999997</v>
+        <v>4.01</v>
       </c>
       <c r="G373" s="6">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="H373" s="6">
-        <v>1942</v>
+        <v>1603</v>
       </c>
       <c r="I373" s="8">
-        <v>43189</v>
+        <v>43164</v>
       </c>
       <c r="J373" s="1" t="s">
         <v>663</v>
@@ -16801,31 +18842,31 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>594</v>
+        <v>161</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E374" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F374" s="7">
-        <v>3.65</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G374" s="6">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="H374" s="6">
-        <v>1774</v>
+        <v>1942</v>
       </c>
       <c r="I374" s="8">
-        <v>43203</v>
+        <v>43189</v>
       </c>
       <c r="J374" s="1" t="s">
         <v>663</v>
@@ -16833,31 +18874,31 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>698</v>
+        <v>594</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E375" s="6">
         <v>3</v>
       </c>
       <c r="F375" s="7">
-        <v>4.21</v>
+        <v>3.65</v>
       </c>
       <c r="G375" s="6">
-        <v>604</v>
+        <v>149</v>
       </c>
       <c r="H375" s="6">
-        <v>1965</v>
+        <v>1774</v>
       </c>
       <c r="I375" s="8">
-        <v>43214</v>
+        <v>43203</v>
       </c>
       <c r="J375" s="1" t="s">
         <v>663</v>
@@ -16865,109 +18906,109 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E376" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F376" s="7">
-        <v>4.3099999999999996</v>
+        <v>4.21</v>
       </c>
       <c r="G376" s="6">
-        <v>384</v>
+        <v>604</v>
       </c>
       <c r="H376" s="6">
-        <v>2017</v>
+        <v>1965</v>
       </c>
       <c r="I376" s="8">
-        <v>43218</v>
+        <v>43214</v>
       </c>
       <c r="J376" s="1" t="s">
-        <v>701</v>
+        <v>663</v>
       </c>
     </row>
     <row r="377" spans="1:10">
       <c r="A377" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E377" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F377" s="7">
-        <v>3.73</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="G377" s="6">
-        <v>128</v>
+        <v>384</v>
       </c>
       <c r="H377" s="6">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="I377" s="8">
-        <v>43249</v>
+        <v>43218</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>14</v>
+        <v>701</v>
       </c>
     </row>
     <row r="378" spans="1:10">
       <c r="A378" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E378" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F378" s="7">
-        <v>4.3499999999999996</v>
+        <v>3.73</v>
       </c>
       <c r="G378" s="6">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="H378" s="6">
-        <v>1946</v>
+        <v>2003</v>
       </c>
       <c r="I378" s="8">
         <v>43249</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>663</v>
+        <v>14</v>
       </c>
     </row>
     <row r="379" spans="1:10">
       <c r="A379" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>21</v>
@@ -16976,144 +19017,144 @@
         <v>4</v>
       </c>
       <c r="F379" s="7">
-        <v>4.22</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G379" s="6">
-        <v>384</v>
+        <v>165</v>
       </c>
       <c r="H379" s="6">
-        <v>1904</v>
+        <v>1946</v>
       </c>
       <c r="I379" s="8">
-        <v>43261</v>
+        <v>43249</v>
       </c>
       <c r="J379" s="1" t="s">
-        <v>701</v>
+        <v>663</v>
       </c>
     </row>
     <row r="380" spans="1:10">
       <c r="A380" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>710</v>
+        <v>31</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="E380" s="6">
         <v>4</v>
       </c>
       <c r="F380" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.22</v>
       </c>
       <c r="G380" s="6">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="H380" s="6">
-        <v>1995</v>
+        <v>1904</v>
       </c>
       <c r="I380" s="8">
-        <v>43296</v>
+        <v>43261</v>
       </c>
       <c r="J380" s="1" t="s">
-        <v>663</v>
+        <v>701</v>
       </c>
     </row>
     <row r="381" spans="1:10">
       <c r="A381" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>20</v>
+        <v>710</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>13</v>
+        <v>330</v>
       </c>
       <c r="E381" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F381" s="7">
-        <v>4.07</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G381" s="6">
-        <v>512</v>
+        <v>329</v>
       </c>
       <c r="H381" s="6">
-        <v>2011</v>
+        <v>1995</v>
       </c>
       <c r="I381" s="8">
-        <v>43371</v>
+        <v>43296</v>
       </c>
       <c r="J381" s="1" t="s">
-        <v>14</v>
+        <v>663</v>
       </c>
     </row>
     <row r="382" spans="1:10">
       <c r="A382" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E382" s="6">
+        <v>3</v>
+      </c>
+      <c r="F382" s="7">
+        <v>4.07</v>
+      </c>
+      <c r="G382" s="6">
+        <v>512</v>
+      </c>
+      <c r="H382" s="6">
+        <v>2011</v>
+      </c>
+      <c r="I382" s="8">
+        <v>43371</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10">
+      <c r="A383" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="B382" s="6" t="s">
+      <c r="B383" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="C382" s="6" t="s">
+      <c r="C383" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="D382" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E382" s="6">
+      <c r="D383" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E383" s="6">
         <v>4</v>
       </c>
-      <c r="F382" s="7">
+      <c r="F383" s="7">
         <v>3.58</v>
       </c>
-      <c r="G382" s="6">
+      <c r="G383" s="6">
         <v>188</v>
       </c>
-      <c r="H382" s="6">
+      <c r="H383" s="6">
         <v>2007</v>
       </c>
-      <c r="I382" s="8">
+      <c r="I383" s="8">
         <v>43384</v>
-      </c>
-      <c r="J382" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10">
-      <c r="A383" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E383" s="1">
-        <v>4</v>
-      </c>
-      <c r="F383" s="2">
-        <v>3.57</v>
-      </c>
-      <c r="G383" s="1">
-        <v>168</v>
-      </c>
-      <c r="H383" s="1">
-        <v>1781</v>
-      </c>
-      <c r="I383" s="8">
-        <v>43388</v>
       </c>
       <c r="J383" s="1" t="s">
         <v>701</v>
@@ -17121,7 +19162,7 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>717</v>
@@ -17136,16 +19177,16 @@
         <v>4</v>
       </c>
       <c r="F384" s="2">
-        <v>3.36</v>
+        <v>3.57</v>
       </c>
       <c r="G384" s="1">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="H384" s="1">
-        <v>1804</v>
+        <v>1781</v>
       </c>
       <c r="I384" s="8">
-        <v>43390</v>
+        <v>43388</v>
       </c>
       <c r="J384" s="1" t="s">
         <v>701</v>
@@ -17153,7 +19194,7 @@
     </row>
     <row r="385" spans="1:1024">
       <c r="A385" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>717</v>
@@ -17165,19 +19206,19 @@
         <v>97</v>
       </c>
       <c r="E385" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F385" s="2">
-        <v>3.24</v>
+        <v>3.36</v>
       </c>
       <c r="G385" s="1">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H385" s="1">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="I385" s="8">
-        <v>43392</v>
+        <v>43390</v>
       </c>
       <c r="J385" s="1" t="s">
         <v>701</v>
@@ -17185,7 +19226,7 @@
     </row>
     <row r="386" spans="1:1024">
       <c r="A386" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>717</v>
@@ -17197,19 +19238,19 @@
         <v>97</v>
       </c>
       <c r="E386" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F386" s="2">
-        <v>3.48</v>
+        <v>3.24</v>
       </c>
       <c r="G386" s="1">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="H386" s="1">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="I386" s="8">
-        <v>43394</v>
+        <v>43392</v>
       </c>
       <c r="J386" s="1" t="s">
         <v>701</v>
@@ -17217,7 +19258,7 @@
     </row>
     <row r="387" spans="1:1024">
       <c r="A387" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>717</v>
@@ -17232,16 +19273,16 @@
         <v>3</v>
       </c>
       <c r="F387" s="2">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="G387" s="1">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="H387" s="1">
-        <v>1800</v>
+        <v>1787</v>
       </c>
       <c r="I387" s="8">
-        <v>43396</v>
+        <v>43394</v>
       </c>
       <c r="J387" s="1" t="s">
         <v>701</v>
@@ -17249,10 +19290,10 @@
     </row>
     <row r="388" spans="1:1024">
       <c r="A388" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>51</v>
@@ -17264,16 +19305,16 @@
         <v>3</v>
       </c>
       <c r="F388" s="2">
-        <v>3.1</v>
+        <v>3.47</v>
       </c>
       <c r="G388" s="1">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="H388" s="1">
-        <v>1772</v>
+        <v>1800</v>
       </c>
       <c r="I388" s="8">
-        <v>43398</v>
+        <v>43396</v>
       </c>
       <c r="J388" s="1" t="s">
         <v>701</v>
@@ -17281,7 +19322,7 @@
     </row>
     <row r="389" spans="1:1024">
       <c r="A389" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>723</v>
@@ -17296,16 +19337,16 @@
         <v>3</v>
       </c>
       <c r="F389" s="2">
-        <v>3.52</v>
+        <v>3.1</v>
       </c>
       <c r="G389" s="1">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="H389" s="1">
-        <v>1779</v>
+        <v>1772</v>
       </c>
       <c r="I389" s="8">
-        <v>43399</v>
+        <v>43398</v>
       </c>
       <c r="J389" s="1" t="s">
         <v>701</v>
@@ -17313,42 +19354,42 @@
     </row>
     <row r="390" spans="1:1024">
       <c r="A390" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E390" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F390" s="2">
-        <v>5</v>
+        <v>3.52</v>
       </c>
       <c r="G390" s="1">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="H390" s="1">
-        <v>201</v>
+        <v>1779</v>
       </c>
       <c r="I390" s="8">
-        <v>43404</v>
+        <v>43399</v>
       </c>
       <c r="J390" s="1" t="s">
-        <v>14</v>
+        <v>701</v>
       </c>
     </row>
     <row r="391" spans="1:1024">
       <c r="A391" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>17</v>
@@ -17357,19 +19398,19 @@
         <v>21</v>
       </c>
       <c r="E391" s="1">
+        <v>4</v>
+      </c>
+      <c r="F391" s="2">
         <v>5</v>
       </c>
-      <c r="F391" s="2">
-        <v>4.08</v>
-      </c>
       <c r="G391" s="1">
-        <v>400</v>
+        <v>137</v>
       </c>
       <c r="H391" s="1">
-        <v>2011</v>
+        <v>201</v>
       </c>
       <c r="I391" s="8">
-        <v>43405</v>
+        <v>43404</v>
       </c>
       <c r="J391" s="1" t="s">
         <v>14</v>
@@ -17377,10 +19418,10 @@
     </row>
     <row r="392" spans="1:1024">
       <c r="A392" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>17</v>
@@ -17392,85 +19433,85 @@
         <v>5</v>
       </c>
       <c r="F392" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="G392" s="1">
+        <v>400</v>
+      </c>
+      <c r="H392" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I392" s="8">
+        <v>43405</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1024">
+      <c r="A393" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E393" s="1">
+        <v>5</v>
+      </c>
+      <c r="F393" s="2">
         <v>3.87</v>
       </c>
-      <c r="G392" s="1">
+      <c r="G393" s="1">
         <v>347</v>
       </c>
-      <c r="H392" s="1">
+      <c r="H393" s="1">
         <v>2017</v>
       </c>
-      <c r="I392" s="8">
+      <c r="I393" s="8">
         <v>43420</v>
       </c>
-      <c r="J392" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1024" s="11" customFormat="1">
-      <c r="A393" s="11" t="s">
+      <c r="J393" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1024" s="11" customFormat="1">
+      <c r="A394" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="B393" s="11" t="s">
+      <c r="B394" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="C393" s="11" t="s">
+      <c r="C394" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D393" s="11" t="s">
+      <c r="D394" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="F393" s="12"/>
-      <c r="G393" s="11">
+      <c r="F394" s="12"/>
+      <c r="G394" s="11">
         <v>88</v>
       </c>
-      <c r="H393" s="11">
+      <c r="H394" s="11">
         <v>1945</v>
       </c>
-      <c r="J393" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AMI393" s="13"/>
-      <c r="AMJ393"/>
-    </row>
-    <row r="394" spans="1:1024">
-      <c r="A394" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D394" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E394" s="1">
-        <v>4</v>
-      </c>
-      <c r="F394" s="2">
-        <v>3.81</v>
-      </c>
-      <c r="G394" s="1">
-        <v>448</v>
-      </c>
-      <c r="H394" s="1">
-        <v>1215</v>
-      </c>
-      <c r="I394" s="8">
-        <v>43437</v>
-      </c>
-      <c r="J394" s="1" t="s">
-        <v>701</v>
-      </c>
+      <c r="J394" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMI394" s="13"/>
+      <c r="AMJ394"/>
     </row>
     <row r="395" spans="1:1024">
       <c r="A395" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>51</v>
@@ -17479,19 +19520,19 @@
         <v>97</v>
       </c>
       <c r="E395" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F395" s="2">
-        <v>3.47</v>
+        <v>3.81</v>
       </c>
       <c r="G395" s="1">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="H395" s="1">
-        <v>1350</v>
+        <v>1215</v>
       </c>
       <c r="I395" s="8">
-        <v>43438</v>
+        <v>43437</v>
       </c>
       <c r="J395" s="1" t="s">
         <v>701</v>
@@ -17499,10 +19540,10 @@
     </row>
     <row r="396" spans="1:1024">
       <c r="A396" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>51</v>
@@ -17514,16 +19555,16 @@
         <v>3</v>
       </c>
       <c r="F396" s="2">
-        <v>4.01</v>
+        <v>3.47</v>
       </c>
       <c r="G396" s="1">
-        <v>474</v>
+        <v>74</v>
       </c>
       <c r="H396" s="1">
-        <v>2017</v>
+        <v>1350</v>
       </c>
       <c r="I396" s="8">
-        <v>43443</v>
+        <v>43438</v>
       </c>
       <c r="J396" s="1" t="s">
         <v>701</v>
@@ -17531,7 +19572,7 @@
     </row>
     <row r="397" spans="1:1024">
       <c r="A397" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>738</v>
@@ -17543,19 +19584,19 @@
         <v>97</v>
       </c>
       <c r="E397" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F397" s="2">
-        <v>3.72</v>
+        <v>4.01</v>
       </c>
       <c r="G397" s="1">
-        <v>302</v>
+        <v>474</v>
       </c>
       <c r="H397" s="1">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="I397" s="8">
-        <v>43458</v>
+        <v>43443</v>
       </c>
       <c r="J397" s="1" t="s">
         <v>701</v>
@@ -17563,31 +19604,31 @@
     </row>
     <row r="398" spans="1:1024">
       <c r="A398" s="1" t="s">
-        <v>59</v>
+        <v>739</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>60</v>
+        <v>738</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E398" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F398" s="2">
-        <v>3.98</v>
-      </c>
-      <c r="G398" s="6">
-        <v>488</v>
-      </c>
-      <c r="H398" s="6">
-        <v>1897</v>
+        <v>3.72</v>
+      </c>
+      <c r="G398" s="1">
+        <v>302</v>
+      </c>
+      <c r="H398" s="1">
+        <v>2005</v>
       </c>
       <c r="I398" s="8">
-        <v>43413</v>
+        <v>43458</v>
       </c>
       <c r="J398" s="1" t="s">
         <v>701</v>
@@ -17595,13 +19636,13 @@
     </row>
     <row r="399" spans="1:1024">
       <c r="A399" s="1" t="s">
-        <v>740</v>
+        <v>59</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>741</v>
+        <v>60</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>97</v>
@@ -17610,13 +19651,16 @@
         <v>4</v>
       </c>
       <c r="F399" s="2">
-        <v>4.29</v>
-      </c>
-      <c r="H399" s="1">
-        <v>1941</v>
+        <v>3.98</v>
+      </c>
+      <c r="G399" s="6">
+        <v>488</v>
+      </c>
+      <c r="H399" s="6">
+        <v>1897</v>
       </c>
       <c r="I399" s="8">
-        <v>43455</v>
+        <v>43413</v>
       </c>
       <c r="J399" s="1" t="s">
         <v>701</v>
@@ -17624,31 +19668,28 @@
     </row>
     <row r="400" spans="1:1024">
       <c r="A400" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>594</v>
+        <v>741</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E400" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F400" s="2">
-        <v>3.98</v>
-      </c>
-      <c r="G400" s="1">
-        <v>135</v>
+        <v>4.29</v>
       </c>
       <c r="H400" s="1">
-        <v>1986</v>
+        <v>1941</v>
       </c>
       <c r="I400" s="8">
-        <v>43460</v>
+        <v>43455</v>
       </c>
       <c r="J400" s="1" t="s">
         <v>701</v>
@@ -17656,13 +19697,13 @@
     </row>
     <row r="401" spans="1:1024">
       <c r="A401" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>744</v>
+        <v>594</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>745</v>
+        <v>51</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>97</v>
@@ -17671,38 +19712,59 @@
         <v>5</v>
       </c>
       <c r="F401" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="G401" s="1">
+        <v>135</v>
+      </c>
+      <c r="H401" s="1">
+        <v>1986</v>
+      </c>
+      <c r="I401" s="8">
+        <v>43460</v>
+      </c>
+      <c r="J401" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1024">
+      <c r="A402" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E402" s="1">
+        <v>5</v>
+      </c>
+      <c r="F402" s="2">
         <v>4.1100000000000003</v>
       </c>
-      <c r="G401" s="1">
+      <c r="G402" s="1">
         <v>160</v>
       </c>
-      <c r="H401" s="1">
+      <c r="H402" s="1">
         <v>2018</v>
       </c>
-      <c r="I401" s="8">
+      <c r="I402" s="8">
         <v>43458</v>
       </c>
-      <c r="J401" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1024" s="11" customFormat="1">
-      <c r="A402" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="B402" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="F402" s="12"/>
-      <c r="AMI402" s="13"/>
-      <c r="AMJ402"/>
+      <c r="J402" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="403" spans="1:1024" s="11" customFormat="1">
       <c r="A403" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F403" s="12"/>
       <c r="AMI403" s="13"/>
@@ -17710,14 +19772,25 @@
     </row>
     <row r="404" spans="1:1024" s="11" customFormat="1">
       <c r="A404" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
+      </c>
+      <c r="B404" s="11" t="s">
+        <v>749</v>
       </c>
       <c r="F404" s="12"/>
       <c r="AMI404" s="13"/>
       <c r="AMJ404"/>
     </row>
+    <row r="405" spans="1:1024" s="11" customFormat="1">
+      <c r="A405" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="F405" s="12"/>
+      <c r="AMI405" s="13"/>
+      <c r="AMJ405"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J381"/>
+  <autoFilter ref="A1:J382"/>
   <conditionalFormatting sqref="E43">
     <cfRule type="expression" priority="2">
       <formula>0</formula>
